--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>561000</v>
+        <v>576000</v>
       </c>
       <c r="E8" s="3">
-        <v>541300</v>
+        <v>557200</v>
       </c>
       <c r="F8" s="3">
-        <v>592200</v>
+        <v>537500</v>
       </c>
       <c r="G8" s="3">
-        <v>563600</v>
+        <v>588100</v>
       </c>
       <c r="H8" s="3">
-        <v>389100</v>
+        <v>559700</v>
       </c>
       <c r="I8" s="3">
-        <v>457200</v>
+        <v>386500</v>
       </c>
       <c r="J8" s="3">
+        <v>454100</v>
+      </c>
+      <c r="K8" s="3">
         <v>492300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>458900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="E9" s="3">
-        <v>210200</v>
+        <v>221400</v>
       </c>
       <c r="F9" s="3">
-        <v>213900</v>
+        <v>208800</v>
       </c>
       <c r="G9" s="3">
-        <v>213700</v>
+        <v>212500</v>
       </c>
       <c r="H9" s="3">
-        <v>162000</v>
+        <v>212200</v>
       </c>
       <c r="I9" s="3">
-        <v>197900</v>
+        <v>160900</v>
       </c>
       <c r="J9" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K9" s="3">
         <v>217300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>338100</v>
+        <v>350300</v>
       </c>
       <c r="E10" s="3">
-        <v>331000</v>
+        <v>335800</v>
       </c>
       <c r="F10" s="3">
-        <v>378200</v>
+        <v>328800</v>
       </c>
       <c r="G10" s="3">
-        <v>349900</v>
+        <v>375600</v>
       </c>
       <c r="H10" s="3">
-        <v>227100</v>
+        <v>347500</v>
       </c>
       <c r="I10" s="3">
-        <v>259300</v>
+        <v>225600</v>
       </c>
       <c r="J10" s="3">
+        <v>257600</v>
+      </c>
+      <c r="K10" s="3">
         <v>275000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10000</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F12" s="3">
         <v>7800</v>
       </c>
-      <c r="F12" s="3">
-        <v>7700</v>
-      </c>
       <c r="G12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
-        <v>9100</v>
-      </c>
       <c r="F14" s="3">
-        <v>-233200</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="3">
+        <v>-231600</v>
+      </c>
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
-        <v>24800</v>
-      </c>
       <c r="I14" s="3">
-        <v>-22300</v>
+        <v>24600</v>
       </c>
       <c r="J14" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-272200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>139300</v>
+        <v>144100</v>
       </c>
       <c r="E15" s="3">
-        <v>128800</v>
+        <v>138300</v>
       </c>
       <c r="F15" s="3">
-        <v>144200</v>
+        <v>127900</v>
       </c>
       <c r="G15" s="3">
-        <v>137100</v>
+        <v>143200</v>
       </c>
       <c r="H15" s="3">
-        <v>97900</v>
+        <v>136200</v>
       </c>
       <c r="I15" s="3">
-        <v>127500</v>
+        <v>97200</v>
       </c>
       <c r="J15" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K15" s="3">
         <v>152600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>413300</v>
+        <v>500000</v>
       </c>
       <c r="E17" s="3">
-        <v>395600</v>
+        <v>410400</v>
       </c>
       <c r="F17" s="3">
-        <v>164600</v>
+        <v>392800</v>
       </c>
       <c r="G17" s="3">
-        <v>398600</v>
+        <v>163400</v>
       </c>
       <c r="H17" s="3">
-        <v>342800</v>
+        <v>395900</v>
       </c>
       <c r="I17" s="3">
-        <v>344800</v>
+        <v>340500</v>
       </c>
       <c r="J17" s="3">
+        <v>342400</v>
+      </c>
+      <c r="K17" s="3">
         <v>406300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>147800</v>
+        <v>76000</v>
       </c>
       <c r="E18" s="3">
-        <v>145700</v>
+        <v>146700</v>
       </c>
       <c r="F18" s="3">
-        <v>427600</v>
+        <v>144700</v>
       </c>
       <c r="G18" s="3">
-        <v>164900</v>
+        <v>424700</v>
       </c>
       <c r="H18" s="3">
-        <v>46300</v>
+        <v>163800</v>
       </c>
       <c r="I18" s="3">
-        <v>112500</v>
+        <v>46000</v>
       </c>
       <c r="J18" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K18" s="3">
         <v>85900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>318500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-35800</v>
+        <v>20900</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-35500</v>
       </c>
       <c r="F20" s="3">
-        <v>-30800</v>
+        <v>-5200</v>
       </c>
       <c r="G20" s="3">
-        <v>-8100</v>
+        <v>-30600</v>
       </c>
       <c r="H20" s="3">
-        <v>-11400</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
-        <v>14500</v>
+        <v>-11300</v>
       </c>
       <c r="J20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>251400</v>
+        <v>241000</v>
       </c>
       <c r="E21" s="3">
-        <v>269200</v>
+        <v>249700</v>
       </c>
       <c r="F21" s="3">
-        <v>541000</v>
+        <v>267400</v>
       </c>
       <c r="G21" s="3">
-        <v>294000</v>
+        <v>537300</v>
       </c>
       <c r="H21" s="3">
-        <v>132700</v>
+        <v>292000</v>
       </c>
       <c r="I21" s="3">
-        <v>254500</v>
+        <v>131800</v>
       </c>
       <c r="J21" s="3">
+        <v>252700</v>
+      </c>
+      <c r="K21" s="3">
         <v>231300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="F22" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>112000</v>
+        <v>72600</v>
       </c>
       <c r="E23" s="3">
-        <v>117100</v>
+        <v>111200</v>
       </c>
       <c r="F23" s="3">
-        <v>375000</v>
+        <v>116300</v>
       </c>
       <c r="G23" s="3">
-        <v>137400</v>
+        <v>372500</v>
       </c>
       <c r="H23" s="3">
+        <v>136400</v>
+      </c>
+      <c r="I23" s="3">
         <v>12400</v>
       </c>
-      <c r="I23" s="3">
-        <v>103500</v>
-      </c>
       <c r="J23" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K23" s="3">
         <v>53600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>280500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>232700</v>
+        <v>39600</v>
       </c>
       <c r="E24" s="3">
-        <v>50000</v>
+        <v>231100</v>
       </c>
       <c r="F24" s="3">
-        <v>243200</v>
+        <v>49700</v>
       </c>
       <c r="G24" s="3">
-        <v>66100</v>
+        <v>241500</v>
       </c>
       <c r="H24" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
-        <v>45800</v>
-      </c>
       <c r="J24" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-120700</v>
+        <v>33000</v>
       </c>
       <c r="E26" s="3">
-        <v>67100</v>
+        <v>-119900</v>
       </c>
       <c r="F26" s="3">
-        <v>131900</v>
+        <v>66600</v>
       </c>
       <c r="G26" s="3">
-        <v>71300</v>
+        <v>130900</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="I26" s="3">
-        <v>57700</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K26" s="3">
         <v>18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56300</v>
+        <v>34400</v>
       </c>
       <c r="E27" s="3">
-        <v>70200</v>
+        <v>-55900</v>
       </c>
       <c r="F27" s="3">
-        <v>131900</v>
+        <v>69700</v>
       </c>
       <c r="G27" s="3">
-        <v>71300</v>
+        <v>130900</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="I27" s="3">
-        <v>57700</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K27" s="3">
         <v>18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35800</v>
+        <v>-20900</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>35500</v>
       </c>
       <c r="F32" s="3">
-        <v>30800</v>
+        <v>5200</v>
       </c>
       <c r="G32" s="3">
-        <v>8100</v>
+        <v>30600</v>
       </c>
       <c r="H32" s="3">
-        <v>11400</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
-        <v>-14500</v>
+        <v>11300</v>
       </c>
       <c r="J32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56300</v>
+        <v>34400</v>
       </c>
       <c r="E33" s="3">
-        <v>70200</v>
+        <v>-55900</v>
       </c>
       <c r="F33" s="3">
-        <v>131900</v>
+        <v>69700</v>
       </c>
       <c r="G33" s="3">
-        <v>71300</v>
+        <v>130900</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="I33" s="3">
-        <v>57700</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K33" s="3">
         <v>18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56300</v>
+        <v>34400</v>
       </c>
       <c r="E35" s="3">
-        <v>70200</v>
+        <v>-55900</v>
       </c>
       <c r="F35" s="3">
-        <v>131900</v>
+        <v>69700</v>
       </c>
       <c r="G35" s="3">
-        <v>71300</v>
+        <v>130900</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="I35" s="3">
-        <v>57700</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K35" s="3">
         <v>18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900400</v>
+        <v>586200</v>
       </c>
       <c r="E41" s="3">
-        <v>869700</v>
+        <v>894200</v>
       </c>
       <c r="F41" s="3">
-        <v>835200</v>
+        <v>863800</v>
       </c>
       <c r="G41" s="3">
-        <v>608200</v>
+        <v>829500</v>
       </c>
       <c r="H41" s="3">
-        <v>416600</v>
+        <v>604000</v>
       </c>
       <c r="I41" s="3">
-        <v>414500</v>
+        <v>413700</v>
       </c>
       <c r="J41" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K41" s="3">
         <v>203700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43100</v>
+        <v>34500</v>
       </c>
       <c r="E42" s="3">
-        <v>26000</v>
+        <v>42800</v>
       </c>
       <c r="F42" s="3">
-        <v>18300</v>
+        <v>25900</v>
       </c>
       <c r="G42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H42" s="3">
         <v>6900</v>
       </c>
-      <c r="H42" s="3">
-        <v>7700</v>
-      </c>
       <c r="I42" s="3">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="J42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K42" s="3">
         <v>10900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>4100</v>
       </c>
       <c r="E43" s="3">
         <v>5900</v>
       </c>
       <c r="F43" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="G43" s="3">
-        <v>6700</v>
+        <v>5300</v>
       </c>
       <c r="H43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>192100</v>
+        <v>201900</v>
       </c>
       <c r="E44" s="3">
-        <v>184700</v>
+        <v>190800</v>
       </c>
       <c r="F44" s="3">
-        <v>195100</v>
+        <v>183400</v>
       </c>
       <c r="G44" s="3">
-        <v>178900</v>
+        <v>193700</v>
       </c>
       <c r="H44" s="3">
-        <v>188300</v>
+        <v>177700</v>
       </c>
       <c r="I44" s="3">
-        <v>171000</v>
+        <v>187000</v>
       </c>
       <c r="J44" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K44" s="3">
         <v>171100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>181400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>136500</v>
+        <v>132100</v>
       </c>
       <c r="E45" s="3">
-        <v>145700</v>
+        <v>135500</v>
       </c>
       <c r="F45" s="3">
-        <v>123300</v>
+        <v>144700</v>
       </c>
       <c r="G45" s="3">
-        <v>129500</v>
+        <v>122400</v>
       </c>
       <c r="H45" s="3">
-        <v>124700</v>
+        <v>128700</v>
       </c>
       <c r="I45" s="3">
-        <v>220500</v>
+        <v>123800</v>
       </c>
       <c r="J45" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K45" s="3">
         <v>125100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1278000</v>
+        <v>958800</v>
       </c>
       <c r="E46" s="3">
-        <v>1232100</v>
+        <v>1269200</v>
       </c>
       <c r="F46" s="3">
-        <v>1177300</v>
+        <v>1223600</v>
       </c>
       <c r="G46" s="3">
-        <v>930300</v>
+        <v>1169200</v>
       </c>
       <c r="H46" s="3">
-        <v>741000</v>
+        <v>923900</v>
       </c>
       <c r="I46" s="3">
-        <v>815300</v>
+        <v>735900</v>
       </c>
       <c r="J46" s="3">
+        <v>809800</v>
+      </c>
+      <c r="K46" s="3">
         <v>515100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>469000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100700</v>
+        <v>81400</v>
       </c>
       <c r="E47" s="3">
-        <v>99300</v>
+        <v>100000</v>
       </c>
       <c r="F47" s="3">
-        <v>157800</v>
+        <v>98600</v>
       </c>
       <c r="G47" s="3">
-        <v>192900</v>
+        <v>156700</v>
       </c>
       <c r="H47" s="3">
-        <v>197400</v>
+        <v>191600</v>
       </c>
       <c r="I47" s="3">
+        <v>196000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>173800</v>
+      </c>
+      <c r="L47" s="3">
         <v>174300</v>
       </c>
-      <c r="J47" s="3">
-        <v>173800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>174300</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8720300</v>
+        <v>8632700</v>
       </c>
       <c r="E48" s="3">
-        <v>8685300</v>
+        <v>8660400</v>
       </c>
       <c r="F48" s="3">
-        <v>8573900</v>
+        <v>8625700</v>
       </c>
       <c r="G48" s="3">
-        <v>7392900</v>
+        <v>8515100</v>
       </c>
       <c r="H48" s="3">
-        <v>7460900</v>
+        <v>7342200</v>
       </c>
       <c r="I48" s="3">
-        <v>7496900</v>
+        <v>7409700</v>
       </c>
       <c r="J48" s="3">
+        <v>7445500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7635200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7649200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>505500</v>
+        <v>500600</v>
       </c>
       <c r="E49" s="3">
-        <v>507000</v>
+        <v>502000</v>
       </c>
       <c r="F49" s="3">
-        <v>508400</v>
+        <v>503500</v>
       </c>
       <c r="G49" s="3">
-        <v>510000</v>
+        <v>504900</v>
       </c>
       <c r="H49" s="3">
-        <v>499400</v>
+        <v>506500</v>
       </c>
       <c r="I49" s="3">
-        <v>501000</v>
+        <v>496000</v>
       </c>
       <c r="J49" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K49" s="3">
         <v>503000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>372700</v>
+        <v>405300</v>
       </c>
       <c r="E52" s="3">
-        <v>378900</v>
+        <v>370200</v>
       </c>
       <c r="F52" s="3">
-        <v>385700</v>
+        <v>376300</v>
       </c>
       <c r="G52" s="3">
-        <v>336900</v>
+        <v>383000</v>
       </c>
       <c r="H52" s="3">
-        <v>334800</v>
+        <v>334600</v>
       </c>
       <c r="I52" s="3">
-        <v>327200</v>
+        <v>332500</v>
       </c>
       <c r="J52" s="3">
+        <v>324900</v>
+      </c>
+      <c r="K52" s="3">
         <v>301400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>297700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10977100</v>
+        <v>10578800</v>
       </c>
       <c r="E54" s="3">
-        <v>10902500</v>
+        <v>10901800</v>
       </c>
       <c r="F54" s="3">
-        <v>10803100</v>
+        <v>10827700</v>
       </c>
       <c r="G54" s="3">
-        <v>9363000</v>
+        <v>10729000</v>
       </c>
       <c r="H54" s="3">
-        <v>9233400</v>
+        <v>9298700</v>
       </c>
       <c r="I54" s="3">
-        <v>9314800</v>
+        <v>9170100</v>
       </c>
       <c r="J54" s="3">
+        <v>9250800</v>
+      </c>
+      <c r="K54" s="3">
         <v>9128500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9095600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>283100</v>
+        <v>305700</v>
       </c>
       <c r="E57" s="3">
-        <v>296700</v>
+        <v>281100</v>
       </c>
       <c r="F57" s="3">
-        <v>308300</v>
+        <v>294600</v>
       </c>
       <c r="G57" s="3">
-        <v>284400</v>
+        <v>306200</v>
       </c>
       <c r="H57" s="3">
-        <v>226900</v>
+        <v>282400</v>
       </c>
       <c r="I57" s="3">
-        <v>258300</v>
+        <v>225300</v>
       </c>
       <c r="J57" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K57" s="3">
         <v>281500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>244600</v>
+        <v>93200</v>
       </c>
       <c r="E58" s="3">
-        <v>244600</v>
+        <v>242900</v>
       </c>
       <c r="F58" s="3">
-        <v>16500</v>
+        <v>242900</v>
       </c>
       <c r="G58" s="3">
-        <v>128300</v>
+        <v>16400</v>
       </c>
       <c r="H58" s="3">
-        <v>128300</v>
+        <v>127400</v>
       </c>
       <c r="I58" s="3">
-        <v>256500</v>
+        <v>127400</v>
       </c>
       <c r="J58" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K58" s="3">
         <v>92000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220400</v>
+        <v>124100</v>
       </c>
       <c r="E59" s="3">
-        <v>247300</v>
+        <v>218800</v>
       </c>
       <c r="F59" s="3">
-        <v>241800</v>
+        <v>245600</v>
       </c>
       <c r="G59" s="3">
-        <v>233000</v>
+        <v>240100</v>
       </c>
       <c r="H59" s="3">
-        <v>262200</v>
+        <v>231400</v>
       </c>
       <c r="I59" s="3">
-        <v>220400</v>
+        <v>260400</v>
       </c>
       <c r="J59" s="3">
+        <v>218800</v>
+      </c>
+      <c r="K59" s="3">
         <v>150300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>748000</v>
+        <v>523000</v>
       </c>
       <c r="E60" s="3">
-        <v>788500</v>
+        <v>742900</v>
       </c>
       <c r="F60" s="3">
-        <v>566700</v>
+        <v>783100</v>
       </c>
       <c r="G60" s="3">
-        <v>645700</v>
+        <v>562800</v>
       </c>
       <c r="H60" s="3">
-        <v>617300</v>
+        <v>641200</v>
       </c>
       <c r="I60" s="3">
-        <v>735200</v>
+        <v>613100</v>
       </c>
       <c r="J60" s="3">
+        <v>730100</v>
+      </c>
+      <c r="K60" s="3">
         <v>523800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1031500</v>
+        <v>984400</v>
       </c>
       <c r="E61" s="3">
-        <v>1030800</v>
+        <v>1024400</v>
       </c>
       <c r="F61" s="3">
-        <v>1303200</v>
+        <v>1023800</v>
       </c>
       <c r="G61" s="3">
-        <v>1274000</v>
+        <v>1294300</v>
       </c>
       <c r="H61" s="3">
-        <v>1273400</v>
+        <v>1265300</v>
       </c>
       <c r="I61" s="3">
-        <v>1272700</v>
+        <v>1264600</v>
       </c>
       <c r="J61" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1307900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1323300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2575700</v>
+        <v>2540300</v>
       </c>
       <c r="E62" s="3">
-        <v>2341300</v>
+        <v>2558000</v>
       </c>
       <c r="F62" s="3">
-        <v>2299200</v>
+        <v>2325200</v>
       </c>
       <c r="G62" s="3">
-        <v>1922100</v>
+        <v>2283400</v>
       </c>
       <c r="H62" s="3">
-        <v>1893000</v>
+        <v>1908900</v>
       </c>
       <c r="I62" s="3">
-        <v>1897200</v>
+        <v>1880000</v>
       </c>
       <c r="J62" s="3">
+        <v>1884200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1884400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1875400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5361000</v>
+        <v>5049000</v>
       </c>
       <c r="E66" s="3">
-        <v>5224800</v>
+        <v>5324200</v>
       </c>
       <c r="F66" s="3">
-        <v>5228500</v>
+        <v>5189000</v>
       </c>
       <c r="G66" s="3">
-        <v>3886300</v>
+        <v>5192600</v>
       </c>
       <c r="H66" s="3">
-        <v>3828200</v>
+        <v>3859600</v>
       </c>
       <c r="I66" s="3">
-        <v>3949600</v>
+        <v>3801900</v>
       </c>
       <c r="J66" s="3">
+        <v>3922500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3760600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3740100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4308300</v>
+        <v>-4281100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4219500</v>
+        <v>-4278700</v>
       </c>
       <c r="F72" s="3">
-        <v>-4256700</v>
+        <v>-4190500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4357000</v>
+        <v>-4227500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4406800</v>
+        <v>-4327100</v>
       </c>
       <c r="I72" s="3">
-        <v>-4387500</v>
+        <v>-4376500</v>
       </c>
       <c r="J72" s="3">
+        <v>-4357400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4429800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4436300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5616100</v>
+        <v>5529800</v>
       </c>
       <c r="E76" s="3">
-        <v>5677700</v>
+        <v>5577600</v>
       </c>
       <c r="F76" s="3">
-        <v>5574600</v>
+        <v>5638700</v>
       </c>
       <c r="G76" s="3">
-        <v>5476700</v>
+        <v>5536300</v>
       </c>
       <c r="H76" s="3">
-        <v>5405300</v>
+        <v>5439100</v>
       </c>
       <c r="I76" s="3">
-        <v>5365100</v>
+        <v>5368200</v>
       </c>
       <c r="J76" s="3">
+        <v>5328300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5367900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5355500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56300</v>
+        <v>34400</v>
       </c>
       <c r="E81" s="3">
-        <v>70200</v>
+        <v>-55900</v>
       </c>
       <c r="F81" s="3">
-        <v>131900</v>
+        <v>69700</v>
       </c>
       <c r="G81" s="3">
-        <v>71300</v>
+        <v>130900</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="I81" s="3">
-        <v>57700</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K81" s="3">
         <v>18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139400</v>
+        <v>144100</v>
       </c>
       <c r="E83" s="3">
-        <v>128800</v>
+        <v>138500</v>
       </c>
       <c r="F83" s="3">
-        <v>144200</v>
+        <v>127900</v>
       </c>
       <c r="G83" s="3">
-        <v>137100</v>
+        <v>143200</v>
       </c>
       <c r="H83" s="3">
-        <v>97900</v>
+        <v>136200</v>
       </c>
       <c r="I83" s="3">
-        <v>127500</v>
+        <v>97200</v>
       </c>
       <c r="J83" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K83" s="3">
         <v>152600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>196800</v>
+        <v>242700</v>
       </c>
       <c r="E89" s="3">
-        <v>205500</v>
+        <v>195400</v>
       </c>
       <c r="F89" s="3">
-        <v>232500</v>
+        <v>204100</v>
       </c>
       <c r="G89" s="3">
-        <v>276000</v>
+        <v>230900</v>
       </c>
       <c r="H89" s="3">
-        <v>117900</v>
+        <v>274100</v>
       </c>
       <c r="I89" s="3">
-        <v>166000</v>
+        <v>117100</v>
       </c>
       <c r="J89" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K89" s="3">
         <v>262000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-119500</v>
+        <v>-119000</v>
       </c>
       <c r="E91" s="3">
-        <v>-102900</v>
+        <v>-118700</v>
       </c>
       <c r="F91" s="3">
-        <v>-122000</v>
+        <v>-102200</v>
       </c>
       <c r="G91" s="3">
-        <v>-79500</v>
+        <v>-121100</v>
       </c>
       <c r="H91" s="3">
-        <v>-63600</v>
+        <v>-79000</v>
       </c>
       <c r="I91" s="3">
-        <v>-85900</v>
+        <v>-63200</v>
       </c>
       <c r="J91" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-109800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-103600</v>
+        <v>-123800</v>
       </c>
       <c r="E94" s="3">
-        <v>-133800</v>
+        <v>-102900</v>
       </c>
       <c r="F94" s="3">
-        <v>174800</v>
+        <v>-132900</v>
       </c>
       <c r="G94" s="3">
-        <v>-61300</v>
+        <v>173600</v>
       </c>
       <c r="H94" s="3">
-        <v>62500</v>
+        <v>-60900</v>
       </c>
       <c r="I94" s="3">
-        <v>-110000</v>
+        <v>62000</v>
       </c>
       <c r="J94" s="3">
+        <v>-109300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-123500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>938500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32300</v>
+        <v>-32100</v>
       </c>
       <c r="E96" s="3">
-        <v>-31800</v>
+        <v>-32100</v>
       </c>
       <c r="F96" s="3">
-        <v>-21400</v>
+        <v>-31600</v>
       </c>
       <c r="G96" s="3">
-        <v>-19100</v>
+        <v>-21300</v>
       </c>
       <c r="H96" s="3">
-        <v>-15300</v>
+        <v>-19000</v>
       </c>
       <c r="I96" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62800</v>
+        <v>-425700</v>
       </c>
       <c r="E100" s="3">
-        <v>-36800</v>
+        <v>-62400</v>
       </c>
       <c r="F100" s="3">
-        <v>-180700</v>
+        <v>-36600</v>
       </c>
       <c r="G100" s="3">
-        <v>-23100</v>
+        <v>-179500</v>
       </c>
       <c r="H100" s="3">
-        <v>-179900</v>
+        <v>-22900</v>
       </c>
       <c r="I100" s="3">
-        <v>158100</v>
+        <v>-178700</v>
       </c>
       <c r="J100" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-59900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1134500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30700</v>
+        <v>-308000</v>
       </c>
       <c r="E102" s="3">
-        <v>34500</v>
+        <v>30400</v>
       </c>
       <c r="F102" s="3">
-        <v>227000</v>
+        <v>34300</v>
       </c>
       <c r="G102" s="3">
-        <v>191600</v>
+        <v>225500</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>190300</v>
       </c>
       <c r="I102" s="3">
-        <v>210900</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K102" s="3">
         <v>75500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>576000</v>
+        <v>642000</v>
       </c>
       <c r="E8" s="3">
-        <v>557200</v>
+        <v>576200</v>
       </c>
       <c r="F8" s="3">
-        <v>537500</v>
+        <v>557400</v>
       </c>
       <c r="G8" s="3">
-        <v>588100</v>
+        <v>537800</v>
       </c>
       <c r="H8" s="3">
-        <v>559700</v>
+        <v>588300</v>
       </c>
       <c r="I8" s="3">
-        <v>386500</v>
+        <v>559900</v>
       </c>
       <c r="J8" s="3">
+        <v>386600</v>
+      </c>
+      <c r="K8" s="3">
         <v>454100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>492300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>458900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225700</v>
+        <v>229400</v>
       </c>
       <c r="E9" s="3">
-        <v>221400</v>
+        <v>225800</v>
       </c>
       <c r="F9" s="3">
-        <v>208800</v>
+        <v>221500</v>
       </c>
       <c r="G9" s="3">
-        <v>212500</v>
+        <v>208900</v>
       </c>
       <c r="H9" s="3">
-        <v>212200</v>
+        <v>212600</v>
       </c>
       <c r="I9" s="3">
+        <v>212300</v>
+      </c>
+      <c r="J9" s="3">
         <v>160900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>196500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>350300</v>
+        <v>412600</v>
       </c>
       <c r="E10" s="3">
-        <v>335800</v>
+        <v>350400</v>
       </c>
       <c r="F10" s="3">
-        <v>328800</v>
+        <v>335900</v>
       </c>
       <c r="G10" s="3">
-        <v>375600</v>
+        <v>328900</v>
       </c>
       <c r="H10" s="3">
-        <v>347500</v>
+        <v>375800</v>
       </c>
       <c r="I10" s="3">
-        <v>225600</v>
+        <v>347600</v>
       </c>
       <c r="J10" s="3">
+        <v>225700</v>
+      </c>
+      <c r="K10" s="3">
         <v>257600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>275000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E12" s="3">
         <v>13900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,72 +906,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>78000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
-        <v>-231600</v>
-      </c>
       <c r="H14" s="3">
+        <v>-231700</v>
+      </c>
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-272200</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E15" s="3">
         <v>144100</v>
       </c>
-      <c r="E15" s="3">
-        <v>138300</v>
-      </c>
       <c r="F15" s="3">
+        <v>138400</v>
+      </c>
+      <c r="G15" s="3">
         <v>127900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>143200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>136200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>97200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>126600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>152600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="E17" s="3">
-        <v>410400</v>
+        <v>500200</v>
       </c>
       <c r="F17" s="3">
-        <v>392800</v>
+        <v>410600</v>
       </c>
       <c r="G17" s="3">
-        <v>163400</v>
+        <v>393000</v>
       </c>
       <c r="H17" s="3">
-        <v>395900</v>
+        <v>163500</v>
       </c>
       <c r="I17" s="3">
-        <v>340500</v>
+        <v>396100</v>
       </c>
       <c r="J17" s="3">
+        <v>340600</v>
+      </c>
+      <c r="K17" s="3">
         <v>342400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>406300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>76000</v>
+        <v>192000</v>
       </c>
       <c r="E18" s="3">
-        <v>146700</v>
+        <v>76100</v>
       </c>
       <c r="F18" s="3">
-        <v>144700</v>
+        <v>146800</v>
       </c>
       <c r="G18" s="3">
-        <v>424700</v>
+        <v>144800</v>
       </c>
       <c r="H18" s="3">
-        <v>163800</v>
+        <v>424900</v>
       </c>
       <c r="I18" s="3">
+        <v>163900</v>
+      </c>
+      <c r="J18" s="3">
         <v>46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>111700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>318500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E20" s="3">
         <v>20900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-35500</v>
-      </c>
       <c r="F20" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>241000</v>
+        <v>366000</v>
       </c>
       <c r="E21" s="3">
-        <v>249700</v>
+        <v>241100</v>
       </c>
       <c r="F21" s="3">
-        <v>267400</v>
+        <v>249800</v>
       </c>
       <c r="G21" s="3">
-        <v>537300</v>
+        <v>267500</v>
       </c>
       <c r="H21" s="3">
-        <v>292000</v>
+        <v>537500</v>
       </c>
       <c r="I21" s="3">
-        <v>131800</v>
+        <v>292100</v>
       </c>
       <c r="J21" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K21" s="3">
         <v>252700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>231300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E23" s="3">
         <v>72600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116300</v>
       </c>
-      <c r="G23" s="3">
-        <v>372500</v>
-      </c>
       <c r="H23" s="3">
-        <v>136400</v>
+        <v>372600</v>
       </c>
       <c r="I23" s="3">
+        <v>136500</v>
+      </c>
+      <c r="J23" s="3">
         <v>12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>102800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>280500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E24" s="3">
         <v>39600</v>
       </c>
-      <c r="E24" s="3">
-        <v>231100</v>
-      </c>
       <c r="F24" s="3">
+        <v>231200</v>
+      </c>
+      <c r="G24" s="3">
         <v>49700</v>
       </c>
-      <c r="G24" s="3">
-        <v>241500</v>
-      </c>
       <c r="H24" s="3">
+        <v>241600</v>
+      </c>
+      <c r="I24" s="3">
         <v>65600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E26" s="3">
         <v>33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-119900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66600</v>
       </c>
-      <c r="G26" s="3">
-        <v>130900</v>
-      </c>
       <c r="H26" s="3">
-        <v>70800</v>
+        <v>131000</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>57300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E27" s="3">
         <v>34400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69700</v>
       </c>
-      <c r="G27" s="3">
-        <v>130900</v>
-      </c>
       <c r="H27" s="3">
-        <v>70800</v>
+        <v>131000</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>57300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20900</v>
       </c>
-      <c r="E32" s="3">
-        <v>35500</v>
-      </c>
       <c r="F32" s="3">
+        <v>35600</v>
+      </c>
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E33" s="3">
         <v>34400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69700</v>
       </c>
-      <c r="G33" s="3">
-        <v>130900</v>
-      </c>
       <c r="H33" s="3">
-        <v>70800</v>
+        <v>131000</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>57300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E35" s="3">
         <v>34400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69700</v>
       </c>
-      <c r="G35" s="3">
-        <v>130900</v>
-      </c>
       <c r="H35" s="3">
-        <v>70800</v>
+        <v>131000</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>57300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1705,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>586200</v>
+        <v>669000</v>
       </c>
       <c r="E41" s="3">
-        <v>894200</v>
+        <v>586400</v>
       </c>
       <c r="F41" s="3">
-        <v>863800</v>
+        <v>894600</v>
       </c>
       <c r="G41" s="3">
-        <v>829500</v>
+        <v>864100</v>
       </c>
       <c r="H41" s="3">
-        <v>604000</v>
+        <v>829800</v>
       </c>
       <c r="I41" s="3">
-        <v>413700</v>
+        <v>604300</v>
       </c>
       <c r="J41" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K41" s="3">
         <v>411700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>203700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E42" s="3">
         <v>34500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5900</v>
       </c>
       <c r="F43" s="3">
         <v>5900</v>
       </c>
       <c r="G43" s="3">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="H43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I43" s="3">
         <v>6600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>201900</v>
+        <v>213100</v>
       </c>
       <c r="E44" s="3">
-        <v>190800</v>
+        <v>202000</v>
       </c>
       <c r="F44" s="3">
-        <v>183400</v>
+        <v>190900</v>
       </c>
       <c r="G44" s="3">
-        <v>193700</v>
+        <v>183500</v>
       </c>
       <c r="H44" s="3">
-        <v>177700</v>
+        <v>193800</v>
       </c>
       <c r="I44" s="3">
-        <v>187000</v>
+        <v>177800</v>
       </c>
       <c r="J44" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K44" s="3">
         <v>169800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>171100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E45" s="3">
         <v>132100</v>
       </c>
-      <c r="E45" s="3">
-        <v>135500</v>
-      </c>
       <c r="F45" s="3">
-        <v>144700</v>
+        <v>135600</v>
       </c>
       <c r="G45" s="3">
-        <v>122400</v>
+        <v>144800</v>
       </c>
       <c r="H45" s="3">
+        <v>122500</v>
+      </c>
+      <c r="I45" s="3">
         <v>128700</v>
       </c>
-      <c r="I45" s="3">
-        <v>123800</v>
-      </c>
       <c r="J45" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K45" s="3">
         <v>219000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>958800</v>
+        <v>1064700</v>
       </c>
       <c r="E46" s="3">
-        <v>1269200</v>
+        <v>959200</v>
       </c>
       <c r="F46" s="3">
-        <v>1223600</v>
+        <v>1269700</v>
       </c>
       <c r="G46" s="3">
-        <v>1169200</v>
+        <v>1224100</v>
       </c>
       <c r="H46" s="3">
-        <v>923900</v>
+        <v>1169700</v>
       </c>
       <c r="I46" s="3">
-        <v>735900</v>
+        <v>924200</v>
       </c>
       <c r="J46" s="3">
+        <v>736200</v>
+      </c>
+      <c r="K46" s="3">
         <v>809800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>515100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>469000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E47" s="3">
         <v>81400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>98600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>156700</v>
       </c>
-      <c r="H47" s="3">
-        <v>191600</v>
-      </c>
       <c r="I47" s="3">
-        <v>196000</v>
+        <v>191700</v>
       </c>
       <c r="J47" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K47" s="3">
         <v>173100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>173800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>174300</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8632700</v>
+        <v>8633600</v>
       </c>
       <c r="E48" s="3">
-        <v>8660400</v>
+        <v>8636100</v>
       </c>
       <c r="F48" s="3">
-        <v>8625700</v>
+        <v>8663800</v>
       </c>
       <c r="G48" s="3">
-        <v>8515100</v>
+        <v>8629000</v>
       </c>
       <c r="H48" s="3">
-        <v>7342200</v>
+        <v>8518400</v>
       </c>
       <c r="I48" s="3">
-        <v>7409700</v>
+        <v>7345100</v>
       </c>
       <c r="J48" s="3">
+        <v>7412600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7445500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7635200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7649200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500600</v>
+        <v>499300</v>
       </c>
       <c r="E49" s="3">
-        <v>502000</v>
+        <v>500800</v>
       </c>
       <c r="F49" s="3">
-        <v>503500</v>
+        <v>502200</v>
       </c>
       <c r="G49" s="3">
-        <v>504900</v>
+        <v>503700</v>
       </c>
       <c r="H49" s="3">
-        <v>506500</v>
+        <v>505100</v>
       </c>
       <c r="I49" s="3">
-        <v>496000</v>
+        <v>506700</v>
       </c>
       <c r="J49" s="3">
+        <v>496200</v>
+      </c>
+      <c r="K49" s="3">
         <v>497500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>503000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>405300</v>
+        <v>381300</v>
       </c>
       <c r="E52" s="3">
-        <v>370200</v>
+        <v>405500</v>
       </c>
       <c r="F52" s="3">
-        <v>376300</v>
+        <v>370300</v>
       </c>
       <c r="G52" s="3">
-        <v>383000</v>
+        <v>376400</v>
       </c>
       <c r="H52" s="3">
-        <v>334600</v>
+        <v>383200</v>
       </c>
       <c r="I52" s="3">
-        <v>332500</v>
+        <v>334800</v>
       </c>
       <c r="J52" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K52" s="3">
         <v>324900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>301400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>297700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10578800</v>
+        <v>10682100</v>
       </c>
       <c r="E54" s="3">
-        <v>10901800</v>
+        <v>10582900</v>
       </c>
       <c r="F54" s="3">
-        <v>10827700</v>
+        <v>10906100</v>
       </c>
       <c r="G54" s="3">
-        <v>10729000</v>
+        <v>10831900</v>
       </c>
       <c r="H54" s="3">
-        <v>9298700</v>
+        <v>10733200</v>
       </c>
       <c r="I54" s="3">
-        <v>9170100</v>
+        <v>9302400</v>
       </c>
       <c r="J54" s="3">
+        <v>9173700</v>
+      </c>
+      <c r="K54" s="3">
         <v>9250800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9128500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9095600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>305700</v>
+        <v>350100</v>
       </c>
       <c r="E57" s="3">
-        <v>281100</v>
+        <v>305800</v>
       </c>
       <c r="F57" s="3">
-        <v>294600</v>
+        <v>281200</v>
       </c>
       <c r="G57" s="3">
-        <v>306200</v>
+        <v>294700</v>
       </c>
       <c r="H57" s="3">
-        <v>282400</v>
+        <v>306300</v>
       </c>
       <c r="I57" s="3">
-        <v>225300</v>
+        <v>282500</v>
       </c>
       <c r="J57" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K57" s="3">
         <v>256500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>281500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>93200</v>
+        <v>28800</v>
       </c>
       <c r="E58" s="3">
-        <v>242900</v>
+        <v>93300</v>
       </c>
       <c r="F58" s="3">
-        <v>242900</v>
+        <v>243000</v>
       </c>
       <c r="G58" s="3">
+        <v>243000</v>
+      </c>
+      <c r="H58" s="3">
         <v>16400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>127400</v>
       </c>
       <c r="I58" s="3">
         <v>127400</v>
       </c>
       <c r="J58" s="3">
+        <v>127400</v>
+      </c>
+      <c r="K58" s="3">
         <v>254800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E59" s="3">
         <v>124100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>218900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>245700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>240200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>231500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>260500</v>
+      </c>
+      <c r="K59" s="3">
         <v>218800</v>
       </c>
-      <c r="F59" s="3">
-        <v>245600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>240100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>231400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>260400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>218800</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>150300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>523000</v>
+        <v>568100</v>
       </c>
       <c r="E60" s="3">
-        <v>742900</v>
+        <v>523200</v>
       </c>
       <c r="F60" s="3">
-        <v>783100</v>
+        <v>743200</v>
       </c>
       <c r="G60" s="3">
-        <v>562800</v>
+        <v>783400</v>
       </c>
       <c r="H60" s="3">
-        <v>641200</v>
+        <v>563000</v>
       </c>
       <c r="I60" s="3">
-        <v>613100</v>
+        <v>641500</v>
       </c>
       <c r="J60" s="3">
+        <v>613300</v>
+      </c>
+      <c r="K60" s="3">
         <v>730100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>523800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>984400</v>
+        <v>984800</v>
       </c>
       <c r="E61" s="3">
-        <v>1024400</v>
+        <v>984800</v>
       </c>
       <c r="F61" s="3">
-        <v>1023800</v>
+        <v>1024800</v>
       </c>
       <c r="G61" s="3">
-        <v>1294300</v>
+        <v>1024200</v>
       </c>
       <c r="H61" s="3">
-        <v>1265300</v>
+        <v>1294800</v>
       </c>
       <c r="I61" s="3">
-        <v>1264600</v>
+        <v>1265800</v>
       </c>
       <c r="J61" s="3">
+        <v>1265100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1264000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1307900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1323300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2540300</v>
+        <v>2498800</v>
       </c>
       <c r="E62" s="3">
-        <v>2558000</v>
+        <v>2541300</v>
       </c>
       <c r="F62" s="3">
-        <v>2325200</v>
+        <v>2559000</v>
       </c>
       <c r="G62" s="3">
-        <v>2283400</v>
+        <v>2326100</v>
       </c>
       <c r="H62" s="3">
-        <v>1908900</v>
+        <v>2284300</v>
       </c>
       <c r="I62" s="3">
-        <v>1880000</v>
+        <v>1909700</v>
       </c>
       <c r="J62" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1884200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1884400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1875400</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5049000</v>
+        <v>5080400</v>
       </c>
       <c r="E66" s="3">
-        <v>5324200</v>
+        <v>5050900</v>
       </c>
       <c r="F66" s="3">
-        <v>5189000</v>
+        <v>5326300</v>
       </c>
       <c r="G66" s="3">
-        <v>5192600</v>
+        <v>5191000</v>
       </c>
       <c r="H66" s="3">
-        <v>3859600</v>
+        <v>5194700</v>
       </c>
       <c r="I66" s="3">
-        <v>3801900</v>
+        <v>3861100</v>
       </c>
       <c r="J66" s="3">
+        <v>3803400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3922500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3760600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3740100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4281100</v>
+        <v>-4200700</v>
       </c>
       <c r="E72" s="3">
-        <v>-4278700</v>
+        <v>-4282800</v>
       </c>
       <c r="F72" s="3">
-        <v>-4190500</v>
+        <v>-4280400</v>
       </c>
       <c r="G72" s="3">
-        <v>-4227500</v>
+        <v>-4192200</v>
       </c>
       <c r="H72" s="3">
-        <v>-4327100</v>
+        <v>-4229100</v>
       </c>
       <c r="I72" s="3">
-        <v>-4376500</v>
+        <v>-4328800</v>
       </c>
       <c r="J72" s="3">
+        <v>-4378200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4357400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4429800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4436300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5529800</v>
+        <v>5601700</v>
       </c>
       <c r="E76" s="3">
-        <v>5577600</v>
+        <v>5532000</v>
       </c>
       <c r="F76" s="3">
-        <v>5638700</v>
+        <v>5579800</v>
       </c>
       <c r="G76" s="3">
-        <v>5536300</v>
+        <v>5640900</v>
       </c>
       <c r="H76" s="3">
-        <v>5439100</v>
+        <v>5538500</v>
       </c>
       <c r="I76" s="3">
-        <v>5368200</v>
+        <v>5441300</v>
       </c>
       <c r="J76" s="3">
+        <v>5370300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5328300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5367900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5355500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E81" s="3">
         <v>34400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69700</v>
       </c>
-      <c r="G81" s="3">
-        <v>130900</v>
-      </c>
       <c r="H81" s="3">
-        <v>70800</v>
+        <v>131000</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>57300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E83" s="3">
         <v>144100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>138500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>127900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>143200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>136200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>97200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>126600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>152600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242700</v>
+        <v>303500</v>
       </c>
       <c r="E89" s="3">
-        <v>195400</v>
+        <v>242800</v>
       </c>
       <c r="F89" s="3">
+        <v>195500</v>
+      </c>
+      <c r="G89" s="3">
         <v>204100</v>
       </c>
-      <c r="G89" s="3">
-        <v>230900</v>
-      </c>
       <c r="H89" s="3">
-        <v>274100</v>
+        <v>231000</v>
       </c>
       <c r="I89" s="3">
+        <v>274200</v>
+      </c>
+      <c r="J89" s="3">
         <v>117100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>164800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>262000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-118700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-102200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-121100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-79000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-85300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-109800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-123800</v>
+        <v>-149600</v>
       </c>
       <c r="E94" s="3">
-        <v>-102900</v>
+        <v>-123900</v>
       </c>
       <c r="F94" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-132900</v>
       </c>
-      <c r="G94" s="3">
-        <v>173600</v>
-      </c>
       <c r="H94" s="3">
+        <v>173700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-60900</v>
       </c>
-      <c r="I94" s="3">
-        <v>62000</v>
-      </c>
       <c r="J94" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-109300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-123500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>938500</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32100</v>
+        <v>-36800</v>
       </c>
       <c r="E96" s="3">
         <v>-32100</v>
       </c>
       <c r="F96" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-31600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-425700</v>
+        <v>-70900</v>
       </c>
       <c r="E100" s="3">
+        <v>-425900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-62400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-179500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-178700</v>
-      </c>
       <c r="J100" s="3">
+        <v>-178800</v>
+      </c>
+      <c r="K100" s="3">
         <v>157100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1134500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-308000</v>
+        <v>82600</v>
       </c>
       <c r="E102" s="3">
-        <v>30400</v>
+        <v>-308100</v>
       </c>
       <c r="F102" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G102" s="3">
         <v>34300</v>
       </c>
-      <c r="G102" s="3">
-        <v>225500</v>
-      </c>
       <c r="H102" s="3">
-        <v>190300</v>
+        <v>225600</v>
       </c>
       <c r="I102" s="3">
+        <v>190400</v>
+      </c>
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>209400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>75500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>642000</v>
+        <v>576400</v>
       </c>
       <c r="E8" s="3">
-        <v>576200</v>
+        <v>657200</v>
       </c>
       <c r="F8" s="3">
-        <v>557400</v>
+        <v>589800</v>
       </c>
       <c r="G8" s="3">
-        <v>537800</v>
+        <v>570500</v>
       </c>
       <c r="H8" s="3">
-        <v>588300</v>
+        <v>550500</v>
       </c>
       <c r="I8" s="3">
-        <v>559900</v>
+        <v>602200</v>
       </c>
       <c r="J8" s="3">
+        <v>573200</v>
+      </c>
+      <c r="K8" s="3">
         <v>386600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>454100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>492300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>458900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>229400</v>
+        <v>233700</v>
       </c>
       <c r="E9" s="3">
-        <v>225800</v>
+        <v>234800</v>
       </c>
       <c r="F9" s="3">
-        <v>221500</v>
+        <v>231100</v>
       </c>
       <c r="G9" s="3">
-        <v>208900</v>
+        <v>226700</v>
       </c>
       <c r="H9" s="3">
-        <v>212600</v>
+        <v>213800</v>
       </c>
       <c r="I9" s="3">
-        <v>212300</v>
+        <v>217600</v>
       </c>
       <c r="J9" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K9" s="3">
         <v>160900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>196500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>217300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>412600</v>
+        <v>342700</v>
       </c>
       <c r="E10" s="3">
-        <v>350400</v>
+        <v>422400</v>
       </c>
       <c r="F10" s="3">
-        <v>335900</v>
+        <v>358700</v>
       </c>
       <c r="G10" s="3">
-        <v>328900</v>
+        <v>343800</v>
       </c>
       <c r="H10" s="3">
-        <v>375800</v>
+        <v>336700</v>
       </c>
       <c r="I10" s="3">
-        <v>347600</v>
+        <v>384700</v>
       </c>
       <c r="J10" s="3">
+        <v>355800</v>
+      </c>
+      <c r="K10" s="3">
         <v>225700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>257600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>275000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>249300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8700</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>13900</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>9900</v>
+        <v>14200</v>
       </c>
       <c r="G12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4600</v>
-      </c>
       <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,78 +926,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>11000</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>78000</v>
+        <v>11200</v>
       </c>
       <c r="F14" s="3">
-        <v>4500</v>
+        <v>79800</v>
       </c>
       <c r="G14" s="3">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="H14" s="3">
-        <v>-231700</v>
+        <v>9300</v>
       </c>
       <c r="I14" s="3">
-        <v>11000</v>
+        <v>-237100</v>
       </c>
       <c r="J14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K14" s="3">
         <v>24600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-272200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>160200</v>
+        <v>141800</v>
       </c>
       <c r="E15" s="3">
-        <v>144100</v>
+        <v>164000</v>
       </c>
       <c r="F15" s="3">
-        <v>138400</v>
+        <v>147500</v>
       </c>
       <c r="G15" s="3">
-        <v>127900</v>
+        <v>141700</v>
       </c>
       <c r="H15" s="3">
-        <v>143200</v>
+        <v>131000</v>
       </c>
       <c r="I15" s="3">
-        <v>136200</v>
+        <v>146600</v>
       </c>
       <c r="J15" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K15" s="3">
         <v>97200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>126600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>152600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>450000</v>
+        <v>440200</v>
       </c>
       <c r="E17" s="3">
-        <v>500200</v>
+        <v>460600</v>
       </c>
       <c r="F17" s="3">
-        <v>410600</v>
+        <v>512000</v>
       </c>
       <c r="G17" s="3">
-        <v>393000</v>
+        <v>420300</v>
       </c>
       <c r="H17" s="3">
-        <v>163500</v>
+        <v>402300</v>
       </c>
       <c r="I17" s="3">
-        <v>396100</v>
+        <v>167400</v>
       </c>
       <c r="J17" s="3">
+        <v>405400</v>
+      </c>
+      <c r="K17" s="3">
         <v>340600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>342400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>406300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>192000</v>
+        <v>136200</v>
       </c>
       <c r="E18" s="3">
-        <v>76100</v>
+        <v>196600</v>
       </c>
       <c r="F18" s="3">
-        <v>146800</v>
+        <v>77900</v>
       </c>
       <c r="G18" s="3">
-        <v>144800</v>
+        <v>150300</v>
       </c>
       <c r="H18" s="3">
-        <v>424900</v>
+        <v>148200</v>
       </c>
       <c r="I18" s="3">
-        <v>163900</v>
+        <v>434900</v>
       </c>
       <c r="J18" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>318500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13800</v>
+        <v>-23900</v>
       </c>
       <c r="E20" s="3">
-        <v>20900</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="3">
-        <v>-35600</v>
+        <v>21400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-36400</v>
       </c>
       <c r="H20" s="3">
-        <v>-30600</v>
+        <v>-5300</v>
       </c>
       <c r="I20" s="3">
-        <v>-8000</v>
+        <v>-31300</v>
       </c>
       <c r="J20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>366000</v>
+        <v>254100</v>
       </c>
       <c r="E21" s="3">
-        <v>241100</v>
+        <v>374600</v>
       </c>
       <c r="F21" s="3">
-        <v>249800</v>
+        <v>246800</v>
       </c>
       <c r="G21" s="3">
-        <v>267500</v>
+        <v>255700</v>
       </c>
       <c r="H21" s="3">
-        <v>537500</v>
+        <v>273800</v>
       </c>
       <c r="I21" s="3">
-        <v>292100</v>
+        <v>550200</v>
       </c>
       <c r="J21" s="3">
+        <v>299000</v>
+      </c>
+      <c r="K21" s="3">
         <v>131900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>252700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>15700</v>
+        <v>14500</v>
       </c>
       <c r="E22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3">
-        <v>23200</v>
-      </c>
       <c r="H22" s="3">
-        <v>21700</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="3">
-        <v>19400</v>
+        <v>22200</v>
       </c>
       <c r="J22" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K22" s="3">
         <v>22300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>190100</v>
+        <v>97800</v>
       </c>
       <c r="E23" s="3">
-        <v>72600</v>
+        <v>194600</v>
       </c>
       <c r="F23" s="3">
-        <v>111200</v>
+        <v>74400</v>
       </c>
       <c r="G23" s="3">
-        <v>116300</v>
+        <v>113900</v>
       </c>
       <c r="H23" s="3">
-        <v>372600</v>
+        <v>119100</v>
       </c>
       <c r="I23" s="3">
-        <v>136500</v>
+        <v>381400</v>
       </c>
       <c r="J23" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K23" s="3">
         <v>12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>280500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56300</v>
+        <v>25700</v>
       </c>
       <c r="E24" s="3">
-        <v>39600</v>
+        <v>57700</v>
       </c>
       <c r="F24" s="3">
-        <v>231200</v>
+        <v>40600</v>
       </c>
       <c r="G24" s="3">
-        <v>49700</v>
+        <v>236600</v>
       </c>
       <c r="H24" s="3">
-        <v>241600</v>
+        <v>50900</v>
       </c>
       <c r="I24" s="3">
-        <v>65600</v>
+        <v>247300</v>
       </c>
       <c r="J24" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>133800</v>
+        <v>72100</v>
       </c>
       <c r="E26" s="3">
-        <v>33000</v>
+        <v>137000</v>
       </c>
       <c r="F26" s="3">
-        <v>-119900</v>
+        <v>33800</v>
       </c>
       <c r="G26" s="3">
-        <v>66600</v>
+        <v>-122700</v>
       </c>
       <c r="H26" s="3">
-        <v>131000</v>
+        <v>68200</v>
       </c>
       <c r="I26" s="3">
-        <v>70900</v>
+        <v>134100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>57300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>140200</v>
+        <v>75400</v>
       </c>
       <c r="E27" s="3">
-        <v>34400</v>
+        <v>143500</v>
       </c>
       <c r="F27" s="3">
-        <v>-55900</v>
+        <v>35200</v>
       </c>
       <c r="G27" s="3">
-        <v>69700</v>
+        <v>-57300</v>
       </c>
       <c r="H27" s="3">
-        <v>131000</v>
+        <v>71400</v>
       </c>
       <c r="I27" s="3">
-        <v>70900</v>
+        <v>134100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>57300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13800</v>
+        <v>23900</v>
       </c>
       <c r="E32" s="3">
-        <v>-20900</v>
+        <v>-14100</v>
       </c>
       <c r="F32" s="3">
-        <v>35600</v>
+        <v>-21400</v>
       </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>36400</v>
       </c>
       <c r="H32" s="3">
-        <v>30600</v>
+        <v>5300</v>
       </c>
       <c r="I32" s="3">
-        <v>8000</v>
+        <v>31300</v>
       </c>
       <c r="J32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140200</v>
+        <v>75400</v>
       </c>
       <c r="E33" s="3">
-        <v>34400</v>
+        <v>143500</v>
       </c>
       <c r="F33" s="3">
-        <v>-55900</v>
+        <v>35200</v>
       </c>
       <c r="G33" s="3">
-        <v>69700</v>
+        <v>-57300</v>
       </c>
       <c r="H33" s="3">
-        <v>131000</v>
+        <v>71400</v>
       </c>
       <c r="I33" s="3">
-        <v>70900</v>
+        <v>134100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>57300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140200</v>
+        <v>75400</v>
       </c>
       <c r="E35" s="3">
-        <v>34400</v>
+        <v>143500</v>
       </c>
       <c r="F35" s="3">
-        <v>-55900</v>
+        <v>35200</v>
       </c>
       <c r="G35" s="3">
-        <v>69700</v>
+        <v>-57300</v>
       </c>
       <c r="H35" s="3">
-        <v>131000</v>
+        <v>71400</v>
       </c>
       <c r="I35" s="3">
-        <v>70900</v>
+        <v>134100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>57300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,323 +1792,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>669000</v>
+        <v>673600</v>
       </c>
       <c r="E41" s="3">
-        <v>586400</v>
+        <v>684800</v>
       </c>
       <c r="F41" s="3">
-        <v>894600</v>
+        <v>600300</v>
       </c>
       <c r="G41" s="3">
-        <v>864100</v>
+        <v>915700</v>
       </c>
       <c r="H41" s="3">
-        <v>829800</v>
+        <v>884500</v>
       </c>
       <c r="I41" s="3">
-        <v>604300</v>
+        <v>849400</v>
       </c>
       <c r="J41" s="3">
+        <v>618500</v>
+      </c>
+      <c r="K41" s="3">
         <v>413900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>411700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>203700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34400</v>
+        <v>44900</v>
       </c>
       <c r="E42" s="3">
-        <v>34500</v>
+        <v>35200</v>
       </c>
       <c r="F42" s="3">
-        <v>42800</v>
+        <v>35300</v>
       </c>
       <c r="G42" s="3">
-        <v>25900</v>
+        <v>43800</v>
       </c>
       <c r="H42" s="3">
-        <v>18200</v>
+        <v>26500</v>
       </c>
       <c r="I42" s="3">
-        <v>6900</v>
+        <v>18700</v>
       </c>
       <c r="J42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K42" s="3">
         <v>7600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3800</v>
+        <v>6300</v>
       </c>
       <c r="E43" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F43" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="G43" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H43" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="I43" s="3">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="J43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>213100</v>
+        <v>242400</v>
       </c>
       <c r="E44" s="3">
-        <v>202000</v>
+        <v>218100</v>
       </c>
       <c r="F44" s="3">
-        <v>190900</v>
+        <v>206700</v>
       </c>
       <c r="G44" s="3">
-        <v>183500</v>
+        <v>195400</v>
       </c>
       <c r="H44" s="3">
-        <v>193800</v>
+        <v>187800</v>
       </c>
       <c r="I44" s="3">
-        <v>177800</v>
+        <v>198400</v>
       </c>
       <c r="J44" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K44" s="3">
         <v>187100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>169800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>171100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>181400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>144400</v>
+        <v>157000</v>
       </c>
       <c r="E45" s="3">
-        <v>132100</v>
+        <v>147800</v>
       </c>
       <c r="F45" s="3">
-        <v>135600</v>
+        <v>135300</v>
       </c>
       <c r="G45" s="3">
-        <v>144800</v>
+        <v>138800</v>
       </c>
       <c r="H45" s="3">
-        <v>122500</v>
+        <v>148200</v>
       </c>
       <c r="I45" s="3">
-        <v>128700</v>
+        <v>125400</v>
       </c>
       <c r="J45" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K45" s="3">
         <v>123900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>219000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1064700</v>
+        <v>1124100</v>
       </c>
       <c r="E46" s="3">
-        <v>959200</v>
+        <v>1089800</v>
       </c>
       <c r="F46" s="3">
-        <v>1269700</v>
+        <v>981800</v>
       </c>
       <c r="G46" s="3">
-        <v>1224100</v>
+        <v>1299700</v>
       </c>
       <c r="H46" s="3">
-        <v>1169700</v>
+        <v>1253000</v>
       </c>
       <c r="I46" s="3">
-        <v>924200</v>
+        <v>1197300</v>
       </c>
       <c r="J46" s="3">
+        <v>946100</v>
+      </c>
+      <c r="K46" s="3">
         <v>736200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>809800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>515100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>469000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103200</v>
+        <v>118800</v>
       </c>
       <c r="E47" s="3">
-        <v>81400</v>
+        <v>105700</v>
       </c>
       <c r="F47" s="3">
-        <v>100000</v>
+        <v>83400</v>
       </c>
       <c r="G47" s="3">
-        <v>98600</v>
+        <v>102400</v>
       </c>
       <c r="H47" s="3">
-        <v>156700</v>
+        <v>101000</v>
       </c>
       <c r="I47" s="3">
-        <v>191700</v>
+        <v>160400</v>
       </c>
       <c r="J47" s="3">
+        <v>196200</v>
+      </c>
+      <c r="K47" s="3">
         <v>196100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>173100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>174300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8633600</v>
+        <v>8832700</v>
       </c>
       <c r="E48" s="3">
-        <v>8636100</v>
+        <v>8837600</v>
       </c>
       <c r="F48" s="3">
-        <v>8663800</v>
+        <v>8840000</v>
       </c>
       <c r="G48" s="3">
-        <v>8629000</v>
+        <v>8868500</v>
       </c>
       <c r="H48" s="3">
-        <v>8518400</v>
+        <v>8832900</v>
       </c>
       <c r="I48" s="3">
-        <v>7345100</v>
+        <v>8719700</v>
       </c>
       <c r="J48" s="3">
+        <v>7518600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7412600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7445500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7635200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7649200</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>499300</v>
+        <v>509500</v>
       </c>
       <c r="E49" s="3">
-        <v>500800</v>
+        <v>511100</v>
       </c>
       <c r="F49" s="3">
-        <v>502200</v>
+        <v>512600</v>
       </c>
       <c r="G49" s="3">
-        <v>503700</v>
+        <v>514100</v>
       </c>
       <c r="H49" s="3">
-        <v>505100</v>
+        <v>515600</v>
       </c>
       <c r="I49" s="3">
-        <v>506700</v>
+        <v>517100</v>
       </c>
       <c r="J49" s="3">
+        <v>518600</v>
+      </c>
+      <c r="K49" s="3">
         <v>496200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>497500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>503000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>381300</v>
+        <v>373800</v>
       </c>
       <c r="E52" s="3">
-        <v>405500</v>
+        <v>390300</v>
       </c>
       <c r="F52" s="3">
-        <v>370300</v>
+        <v>415100</v>
       </c>
       <c r="G52" s="3">
-        <v>376400</v>
+        <v>379100</v>
       </c>
       <c r="H52" s="3">
-        <v>383200</v>
+        <v>385300</v>
       </c>
       <c r="I52" s="3">
-        <v>334800</v>
+        <v>392200</v>
       </c>
       <c r="J52" s="3">
+        <v>342700</v>
+      </c>
+      <c r="K52" s="3">
         <v>332600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>324900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>301400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>297700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10682100</v>
+        <v>10959000</v>
       </c>
       <c r="E54" s="3">
-        <v>10582900</v>
+        <v>10934400</v>
       </c>
       <c r="F54" s="3">
-        <v>10906100</v>
+        <v>10832900</v>
       </c>
       <c r="G54" s="3">
-        <v>10831900</v>
+        <v>11163700</v>
       </c>
       <c r="H54" s="3">
-        <v>10733200</v>
+        <v>11087800</v>
       </c>
       <c r="I54" s="3">
-        <v>9302400</v>
+        <v>10986700</v>
       </c>
       <c r="J54" s="3">
+        <v>9522100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9173700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9250800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9128500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9095600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2356,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>350100</v>
+        <v>323200</v>
       </c>
       <c r="E57" s="3">
-        <v>305800</v>
+        <v>358300</v>
       </c>
       <c r="F57" s="3">
-        <v>281200</v>
+        <v>313100</v>
       </c>
       <c r="G57" s="3">
-        <v>294700</v>
+        <v>287900</v>
       </c>
       <c r="H57" s="3">
-        <v>306300</v>
+        <v>301700</v>
       </c>
       <c r="I57" s="3">
-        <v>282500</v>
+        <v>313600</v>
       </c>
       <c r="J57" s="3">
+        <v>289200</v>
+      </c>
+      <c r="K57" s="3">
         <v>225400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>256500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>281500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28800</v>
+        <v>87700</v>
       </c>
       <c r="E58" s="3">
-        <v>93300</v>
+        <v>29500</v>
       </c>
       <c r="F58" s="3">
-        <v>243000</v>
+        <v>95500</v>
       </c>
       <c r="G58" s="3">
-        <v>243000</v>
+        <v>248700</v>
       </c>
       <c r="H58" s="3">
-        <v>16400</v>
+        <v>248700</v>
       </c>
       <c r="I58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K58" s="3">
         <v>127400</v>
       </c>
-      <c r="J58" s="3">
-        <v>127400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>254800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>189200</v>
+        <v>122600</v>
       </c>
       <c r="E59" s="3">
-        <v>124100</v>
+        <v>193700</v>
       </c>
       <c r="F59" s="3">
-        <v>218900</v>
+        <v>127000</v>
       </c>
       <c r="G59" s="3">
-        <v>245700</v>
+        <v>224100</v>
       </c>
       <c r="H59" s="3">
-        <v>240200</v>
+        <v>251500</v>
       </c>
       <c r="I59" s="3">
-        <v>231500</v>
+        <v>245900</v>
       </c>
       <c r="J59" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K59" s="3">
         <v>260500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>150300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>568100</v>
+        <v>533500</v>
       </c>
       <c r="E60" s="3">
-        <v>523200</v>
+        <v>581500</v>
       </c>
       <c r="F60" s="3">
-        <v>743200</v>
+        <v>535600</v>
       </c>
       <c r="G60" s="3">
-        <v>783400</v>
+        <v>760700</v>
       </c>
       <c r="H60" s="3">
-        <v>563000</v>
+        <v>801900</v>
       </c>
       <c r="I60" s="3">
-        <v>641500</v>
+        <v>576300</v>
       </c>
       <c r="J60" s="3">
+        <v>656600</v>
+      </c>
+      <c r="K60" s="3">
         <v>613300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>730100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>523800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>984800</v>
+        <v>1008600</v>
       </c>
       <c r="E61" s="3">
-        <v>984800</v>
+        <v>1008000</v>
       </c>
       <c r="F61" s="3">
-        <v>1024800</v>
+        <v>1008000</v>
       </c>
       <c r="G61" s="3">
-        <v>1024200</v>
+        <v>1049000</v>
       </c>
       <c r="H61" s="3">
-        <v>1294800</v>
+        <v>1048300</v>
       </c>
       <c r="I61" s="3">
-        <v>1265800</v>
+        <v>1325400</v>
       </c>
       <c r="J61" s="3">
+        <v>1295700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1265100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1264000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1307900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1323300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2498800</v>
+        <v>2563800</v>
       </c>
       <c r="E62" s="3">
-        <v>2541300</v>
+        <v>2557800</v>
       </c>
       <c r="F62" s="3">
-        <v>2559000</v>
+        <v>2601400</v>
       </c>
       <c r="G62" s="3">
-        <v>2326100</v>
+        <v>2619500</v>
       </c>
       <c r="H62" s="3">
-        <v>2284300</v>
+        <v>2381100</v>
       </c>
       <c r="I62" s="3">
-        <v>1909700</v>
+        <v>2338300</v>
       </c>
       <c r="J62" s="3">
+        <v>1954800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1880700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1884200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1884400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1875400</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5080400</v>
+        <v>5162300</v>
       </c>
       <c r="E66" s="3">
-        <v>5050900</v>
+        <v>5200400</v>
       </c>
       <c r="F66" s="3">
-        <v>5326300</v>
+        <v>5170300</v>
       </c>
       <c r="G66" s="3">
-        <v>5191000</v>
+        <v>5452100</v>
       </c>
       <c r="H66" s="3">
-        <v>5194700</v>
+        <v>5313600</v>
       </c>
       <c r="I66" s="3">
-        <v>3861100</v>
+        <v>5317400</v>
       </c>
       <c r="J66" s="3">
+        <v>3952300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3803400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3922500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3760600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3740100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4200700</v>
+        <v>-4262100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4282800</v>
+        <v>-4300000</v>
       </c>
       <c r="F72" s="3">
-        <v>-4280400</v>
+        <v>-4384000</v>
       </c>
       <c r="G72" s="3">
-        <v>-4192200</v>
+        <v>-4381500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4229100</v>
+        <v>-4291200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4328800</v>
+        <v>-4329000</v>
       </c>
       <c r="J72" s="3">
+        <v>-4431000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4378200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4357400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4429800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4436300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5601700</v>
+        <v>5796800</v>
       </c>
       <c r="E76" s="3">
-        <v>5532000</v>
+        <v>5734000</v>
       </c>
       <c r="F76" s="3">
-        <v>5579800</v>
+        <v>5662700</v>
       </c>
       <c r="G76" s="3">
-        <v>5640900</v>
+        <v>5711600</v>
       </c>
       <c r="H76" s="3">
-        <v>5538500</v>
+        <v>5774200</v>
       </c>
       <c r="I76" s="3">
-        <v>5441300</v>
+        <v>5669300</v>
       </c>
       <c r="J76" s="3">
+        <v>5569800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5370300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5328300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5367900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5355500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140200</v>
+        <v>75400</v>
       </c>
       <c r="E81" s="3">
-        <v>34400</v>
+        <v>143500</v>
       </c>
       <c r="F81" s="3">
-        <v>-55900</v>
+        <v>35200</v>
       </c>
       <c r="G81" s="3">
-        <v>69700</v>
+        <v>-57300</v>
       </c>
       <c r="H81" s="3">
-        <v>131000</v>
+        <v>71400</v>
       </c>
       <c r="I81" s="3">
-        <v>70900</v>
+        <v>134100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>57300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>160200</v>
+        <v>141800</v>
       </c>
       <c r="E83" s="3">
-        <v>144100</v>
+        <v>164000</v>
       </c>
       <c r="F83" s="3">
-        <v>138500</v>
+        <v>147500</v>
       </c>
       <c r="G83" s="3">
-        <v>127900</v>
+        <v>141800</v>
       </c>
       <c r="H83" s="3">
-        <v>143200</v>
+        <v>131000</v>
       </c>
       <c r="I83" s="3">
-        <v>136200</v>
+        <v>146600</v>
       </c>
       <c r="J83" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K83" s="3">
         <v>97200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>126600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>303500</v>
+        <v>197900</v>
       </c>
       <c r="E89" s="3">
-        <v>242800</v>
+        <v>310700</v>
       </c>
       <c r="F89" s="3">
-        <v>195500</v>
+        <v>248500</v>
       </c>
       <c r="G89" s="3">
-        <v>204100</v>
+        <v>200100</v>
       </c>
       <c r="H89" s="3">
-        <v>231000</v>
+        <v>209000</v>
       </c>
       <c r="I89" s="3">
-        <v>274200</v>
+        <v>236500</v>
       </c>
       <c r="J89" s="3">
+        <v>280700</v>
+      </c>
+      <c r="K89" s="3">
         <v>117100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>262000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-150100</v>
+        <v>-122900</v>
       </c>
       <c r="E91" s="3">
-        <v>-119000</v>
+        <v>-153700</v>
       </c>
       <c r="F91" s="3">
-        <v>-118800</v>
+        <v>-121800</v>
       </c>
       <c r="G91" s="3">
-        <v>-102200</v>
+        <v>-121600</v>
       </c>
       <c r="H91" s="3">
-        <v>-121200</v>
+        <v>-104600</v>
       </c>
       <c r="I91" s="3">
-        <v>-79000</v>
+        <v>-124000</v>
       </c>
       <c r="J91" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-63200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-109800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-149600</v>
+        <v>-157300</v>
       </c>
       <c r="E94" s="3">
-        <v>-123900</v>
+        <v>-153100</v>
       </c>
       <c r="F94" s="3">
-        <v>-103000</v>
+        <v>-126800</v>
       </c>
       <c r="G94" s="3">
-        <v>-132900</v>
+        <v>-105400</v>
       </c>
       <c r="H94" s="3">
-        <v>173700</v>
+        <v>-136000</v>
       </c>
       <c r="I94" s="3">
-        <v>-60900</v>
+        <v>177800</v>
       </c>
       <c r="J94" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="K94" s="3">
         <v>62100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-123500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>938500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-36800</v>
+        <v>-37400</v>
       </c>
       <c r="E96" s="3">
-        <v>-32100</v>
+        <v>-37700</v>
       </c>
       <c r="F96" s="3">
-        <v>-32100</v>
+        <v>-32900</v>
       </c>
       <c r="G96" s="3">
-        <v>-31600</v>
+        <v>-32900</v>
       </c>
       <c r="H96" s="3">
-        <v>-21300</v>
+        <v>-32300</v>
       </c>
       <c r="I96" s="3">
-        <v>-19000</v>
+        <v>-21800</v>
       </c>
       <c r="J96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-70900</v>
+        <v>-51700</v>
       </c>
       <c r="E100" s="3">
-        <v>-425900</v>
+        <v>-72500</v>
       </c>
       <c r="F100" s="3">
-        <v>-62400</v>
+        <v>-435900</v>
       </c>
       <c r="G100" s="3">
-        <v>-36600</v>
+        <v>-63900</v>
       </c>
       <c r="H100" s="3">
-        <v>-179500</v>
+        <v>-37400</v>
       </c>
       <c r="I100" s="3">
-        <v>-22900</v>
+        <v>-183800</v>
       </c>
       <c r="J100" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-178800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>157100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1134500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>82600</v>
+        <v>-11200</v>
       </c>
       <c r="E102" s="3">
-        <v>-308100</v>
+        <v>84500</v>
       </c>
       <c r="F102" s="3">
-        <v>30500</v>
+        <v>-315400</v>
       </c>
       <c r="G102" s="3">
-        <v>34300</v>
+        <v>31200</v>
       </c>
       <c r="H102" s="3">
-        <v>225600</v>
+        <v>35100</v>
       </c>
       <c r="I102" s="3">
-        <v>190400</v>
+        <v>230900</v>
       </c>
       <c r="J102" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>209400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>75500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>576400</v>
+        <v>627600</v>
       </c>
       <c r="E8" s="3">
-        <v>657200</v>
+        <v>571100</v>
       </c>
       <c r="F8" s="3">
-        <v>589800</v>
+        <v>651100</v>
       </c>
       <c r="G8" s="3">
-        <v>570500</v>
+        <v>584400</v>
       </c>
       <c r="H8" s="3">
-        <v>550500</v>
+        <v>565300</v>
       </c>
       <c r="I8" s="3">
-        <v>602200</v>
+        <v>545400</v>
       </c>
       <c r="J8" s="3">
+        <v>596700</v>
+      </c>
+      <c r="K8" s="3">
         <v>573200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>386600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>454100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>492300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>458900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>233700</v>
+        <v>249000</v>
       </c>
       <c r="E9" s="3">
-        <v>234800</v>
+        <v>231600</v>
       </c>
       <c r="F9" s="3">
-        <v>231100</v>
+        <v>232600</v>
       </c>
       <c r="G9" s="3">
-        <v>226700</v>
+        <v>229000</v>
       </c>
       <c r="H9" s="3">
-        <v>213800</v>
+        <v>224600</v>
       </c>
       <c r="I9" s="3">
-        <v>217600</v>
+        <v>211800</v>
       </c>
       <c r="J9" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K9" s="3">
         <v>217300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>160900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>196500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>342700</v>
+        <v>378500</v>
       </c>
       <c r="E10" s="3">
-        <v>422400</v>
+        <v>339500</v>
       </c>
       <c r="F10" s="3">
-        <v>358700</v>
+        <v>418500</v>
       </c>
       <c r="G10" s="3">
-        <v>343800</v>
+        <v>355400</v>
       </c>
       <c r="H10" s="3">
-        <v>336700</v>
+        <v>340700</v>
       </c>
       <c r="I10" s="3">
-        <v>384700</v>
+        <v>333600</v>
       </c>
       <c r="J10" s="3">
+        <v>381100</v>
+      </c>
+      <c r="K10" s="3">
         <v>355800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>225700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>257600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>275000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>249300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
-        <v>8900</v>
-      </c>
       <c r="F12" s="3">
-        <v>14200</v>
+        <v>8800</v>
       </c>
       <c r="G12" s="3">
-        <v>10200</v>
+        <v>14100</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>10100</v>
       </c>
       <c r="I12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>7400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>79100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="K14" s="3">
         <v>11200</v>
       </c>
-      <c r="F14" s="3">
-        <v>79800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-237100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>11200</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-22200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-272200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>141800</v>
+        <v>143200</v>
       </c>
       <c r="E15" s="3">
-        <v>164000</v>
+        <v>140500</v>
       </c>
       <c r="F15" s="3">
-        <v>147500</v>
+        <v>162500</v>
       </c>
       <c r="G15" s="3">
-        <v>141700</v>
+        <v>146200</v>
       </c>
       <c r="H15" s="3">
-        <v>131000</v>
+        <v>140400</v>
       </c>
       <c r="I15" s="3">
-        <v>146600</v>
+        <v>129800</v>
       </c>
       <c r="J15" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K15" s="3">
         <v>139400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>97200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>126600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>152600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>440200</v>
+        <v>458800</v>
       </c>
       <c r="E17" s="3">
-        <v>460600</v>
+        <v>436200</v>
       </c>
       <c r="F17" s="3">
-        <v>512000</v>
+        <v>456300</v>
       </c>
       <c r="G17" s="3">
-        <v>420300</v>
+        <v>507300</v>
       </c>
       <c r="H17" s="3">
-        <v>402300</v>
+        <v>416400</v>
       </c>
       <c r="I17" s="3">
-        <v>167400</v>
+        <v>398600</v>
       </c>
       <c r="J17" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K17" s="3">
         <v>405400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>340600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>342400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>406300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>136200</v>
+        <v>168800</v>
       </c>
       <c r="E18" s="3">
-        <v>196600</v>
+        <v>134900</v>
       </c>
       <c r="F18" s="3">
-        <v>77900</v>
+        <v>194800</v>
       </c>
       <c r="G18" s="3">
-        <v>150300</v>
+        <v>77200</v>
       </c>
       <c r="H18" s="3">
-        <v>148200</v>
+        <v>148900</v>
       </c>
       <c r="I18" s="3">
-        <v>434900</v>
+        <v>146800</v>
       </c>
       <c r="J18" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K18" s="3">
         <v>167700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>111700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>318500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-23900</v>
+        <v>20700</v>
       </c>
       <c r="E20" s="3">
-        <v>14100</v>
+        <v>-23700</v>
       </c>
       <c r="F20" s="3">
-        <v>21400</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
-        <v>-36400</v>
+        <v>21200</v>
       </c>
       <c r="H20" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-31300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>254100</v>
+        <v>332800</v>
       </c>
       <c r="E21" s="3">
-        <v>374600</v>
+        <v>251800</v>
       </c>
       <c r="F21" s="3">
-        <v>246800</v>
+        <v>371200</v>
       </c>
       <c r="G21" s="3">
-        <v>255700</v>
+        <v>244500</v>
       </c>
       <c r="H21" s="3">
-        <v>273800</v>
+        <v>253300</v>
       </c>
       <c r="I21" s="3">
-        <v>550200</v>
+        <v>271300</v>
       </c>
       <c r="J21" s="3">
+        <v>545100</v>
+      </c>
+      <c r="K21" s="3">
         <v>299000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>252700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>231300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>14300</v>
       </c>
       <c r="F22" s="3">
-        <v>24900</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>15900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
-        <v>23700</v>
-      </c>
       <c r="I22" s="3">
-        <v>22200</v>
+        <v>23500</v>
       </c>
       <c r="J22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K22" s="3">
         <v>19800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97800</v>
+        <v>175600</v>
       </c>
       <c r="E23" s="3">
-        <v>194600</v>
+        <v>96900</v>
       </c>
       <c r="F23" s="3">
-        <v>74400</v>
+        <v>192800</v>
       </c>
       <c r="G23" s="3">
-        <v>113900</v>
+        <v>73700</v>
       </c>
       <c r="H23" s="3">
-        <v>119100</v>
+        <v>112800</v>
       </c>
       <c r="I23" s="3">
-        <v>381400</v>
+        <v>118000</v>
       </c>
       <c r="J23" s="3">
+        <v>377900</v>
+      </c>
+      <c r="K23" s="3">
         <v>139700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>102800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>280500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25700</v>
+        <v>85900</v>
       </c>
       <c r="E24" s="3">
-        <v>57700</v>
+        <v>25500</v>
       </c>
       <c r="F24" s="3">
-        <v>40600</v>
+        <v>57100</v>
       </c>
       <c r="G24" s="3">
-        <v>236600</v>
+        <v>40200</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>234400</v>
       </c>
       <c r="I24" s="3">
-        <v>247300</v>
+        <v>50400</v>
       </c>
       <c r="J24" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K24" s="3">
         <v>67200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72100</v>
+        <v>89700</v>
       </c>
       <c r="E26" s="3">
-        <v>137000</v>
+        <v>71500</v>
       </c>
       <c r="F26" s="3">
-        <v>33800</v>
+        <v>135700</v>
       </c>
       <c r="G26" s="3">
-        <v>-122700</v>
+        <v>33500</v>
       </c>
       <c r="H26" s="3">
-        <v>68200</v>
+        <v>-121600</v>
       </c>
       <c r="I26" s="3">
-        <v>134100</v>
+        <v>67600</v>
       </c>
       <c r="J26" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K26" s="3">
         <v>72500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>57300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75400</v>
+        <v>93200</v>
       </c>
       <c r="E27" s="3">
-        <v>143500</v>
+        <v>74700</v>
       </c>
       <c r="F27" s="3">
-        <v>35200</v>
+        <v>142200</v>
       </c>
       <c r="G27" s="3">
-        <v>-57300</v>
+        <v>34900</v>
       </c>
       <c r="H27" s="3">
-        <v>71400</v>
+        <v>-56700</v>
       </c>
       <c r="I27" s="3">
-        <v>134100</v>
+        <v>70700</v>
       </c>
       <c r="J27" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K27" s="3">
         <v>72500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>57300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23900</v>
+        <v>-20700</v>
       </c>
       <c r="E32" s="3">
-        <v>-14100</v>
+        <v>23700</v>
       </c>
       <c r="F32" s="3">
-        <v>-21400</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
-        <v>36400</v>
+        <v>-21200</v>
       </c>
       <c r="H32" s="3">
+        <v>36100</v>
+      </c>
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
-        <v>31300</v>
-      </c>
       <c r="J32" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75400</v>
+        <v>93200</v>
       </c>
       <c r="E33" s="3">
-        <v>143500</v>
+        <v>74700</v>
       </c>
       <c r="F33" s="3">
-        <v>35200</v>
+        <v>142200</v>
       </c>
       <c r="G33" s="3">
-        <v>-57300</v>
+        <v>34900</v>
       </c>
       <c r="H33" s="3">
-        <v>71400</v>
+        <v>-56700</v>
       </c>
       <c r="I33" s="3">
-        <v>134100</v>
+        <v>70700</v>
       </c>
       <c r="J33" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K33" s="3">
         <v>72500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>57300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75400</v>
+        <v>93200</v>
       </c>
       <c r="E35" s="3">
-        <v>143500</v>
+        <v>74700</v>
       </c>
       <c r="F35" s="3">
-        <v>35200</v>
+        <v>142200</v>
       </c>
       <c r="G35" s="3">
-        <v>-57300</v>
+        <v>34900</v>
       </c>
       <c r="H35" s="3">
-        <v>71400</v>
+        <v>-56700</v>
       </c>
       <c r="I35" s="3">
-        <v>134100</v>
+        <v>70700</v>
       </c>
       <c r="J35" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K35" s="3">
         <v>72500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>57300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,350 +1879,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>673600</v>
+        <v>704500</v>
       </c>
       <c r="E41" s="3">
-        <v>684800</v>
+        <v>667400</v>
       </c>
       <c r="F41" s="3">
-        <v>600300</v>
+        <v>678500</v>
       </c>
       <c r="G41" s="3">
-        <v>915700</v>
+        <v>594800</v>
       </c>
       <c r="H41" s="3">
-        <v>884500</v>
+        <v>907300</v>
       </c>
       <c r="I41" s="3">
-        <v>849400</v>
+        <v>876400</v>
       </c>
       <c r="J41" s="3">
+        <v>841600</v>
+      </c>
+      <c r="K41" s="3">
         <v>618500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>413900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>411700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>203700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44900</v>
+        <v>20500</v>
       </c>
       <c r="E42" s="3">
-        <v>35200</v>
+        <v>44500</v>
       </c>
       <c r="F42" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="G42" s="3">
-        <v>43800</v>
+        <v>35000</v>
       </c>
       <c r="H42" s="3">
-        <v>26500</v>
+        <v>43400</v>
       </c>
       <c r="I42" s="3">
-        <v>18700</v>
+        <v>26200</v>
       </c>
       <c r="J42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
-        <v>4200</v>
-      </c>
       <c r="G43" s="3">
-        <v>6000</v>
+        <v>4100</v>
       </c>
       <c r="H43" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I43" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="J43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>242400</v>
+        <v>256200</v>
       </c>
       <c r="E44" s="3">
-        <v>218100</v>
+        <v>240100</v>
       </c>
       <c r="F44" s="3">
-        <v>206700</v>
+        <v>216100</v>
       </c>
       <c r="G44" s="3">
-        <v>195400</v>
+        <v>204800</v>
       </c>
       <c r="H44" s="3">
-        <v>187800</v>
+        <v>193600</v>
       </c>
       <c r="I44" s="3">
-        <v>198400</v>
+        <v>186100</v>
       </c>
       <c r="J44" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K44" s="3">
         <v>182000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>187100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>169800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>171100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>181400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157000</v>
+        <v>153800</v>
       </c>
       <c r="E45" s="3">
-        <v>147800</v>
+        <v>155600</v>
       </c>
       <c r="F45" s="3">
+        <v>146400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>134000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>137500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>131700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>123900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>219000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>125100</v>
+      </c>
+      <c r="O45" s="3">
         <v>135300</v>
       </c>
-      <c r="G45" s="3">
-        <v>138800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>148200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>125400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>131700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>123900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>219000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>125100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>135300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1124100</v>
+        <v>1141400</v>
       </c>
       <c r="E46" s="3">
-        <v>1089800</v>
+        <v>1113800</v>
       </c>
       <c r="F46" s="3">
-        <v>981800</v>
+        <v>1079800</v>
       </c>
       <c r="G46" s="3">
-        <v>1299700</v>
+        <v>972800</v>
       </c>
       <c r="H46" s="3">
-        <v>1253000</v>
+        <v>1287700</v>
       </c>
       <c r="I46" s="3">
-        <v>1197300</v>
+        <v>1241500</v>
       </c>
       <c r="J46" s="3">
+        <v>1186300</v>
+      </c>
+      <c r="K46" s="3">
         <v>946100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>736200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>809800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>515100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>469000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118800</v>
+        <v>83500</v>
       </c>
       <c r="E47" s="3">
-        <v>105700</v>
+        <v>117700</v>
       </c>
       <c r="F47" s="3">
-        <v>83400</v>
+        <v>104700</v>
       </c>
       <c r="G47" s="3">
-        <v>102400</v>
+        <v>82600</v>
       </c>
       <c r="H47" s="3">
-        <v>101000</v>
+        <v>101500</v>
       </c>
       <c r="I47" s="3">
-        <v>160400</v>
+        <v>100000</v>
       </c>
       <c r="J47" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K47" s="3">
         <v>196200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>196100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>173800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>174300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8832700</v>
+        <v>8750300</v>
       </c>
       <c r="E48" s="3">
-        <v>8837600</v>
+        <v>8751500</v>
       </c>
       <c r="F48" s="3">
-        <v>8840000</v>
+        <v>8756300</v>
       </c>
       <c r="G48" s="3">
-        <v>8868500</v>
+        <v>8758700</v>
       </c>
       <c r="H48" s="3">
-        <v>8832900</v>
+        <v>8786900</v>
       </c>
       <c r="I48" s="3">
-        <v>8719700</v>
+        <v>8751600</v>
       </c>
       <c r="J48" s="3">
+        <v>8639400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7518600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7412600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7445500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7635200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7649200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>509500</v>
+        <v>503300</v>
       </c>
       <c r="E49" s="3">
-        <v>511100</v>
+        <v>504800</v>
       </c>
       <c r="F49" s="3">
-        <v>512600</v>
+        <v>506400</v>
       </c>
       <c r="G49" s="3">
-        <v>514100</v>
+        <v>507900</v>
       </c>
       <c r="H49" s="3">
-        <v>515600</v>
+        <v>509300</v>
       </c>
       <c r="I49" s="3">
-        <v>517100</v>
+        <v>510900</v>
       </c>
       <c r="J49" s="3">
+        <v>512300</v>
+      </c>
+      <c r="K49" s="3">
         <v>518600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>496200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>497500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>503000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>373800</v>
+        <v>381100</v>
       </c>
       <c r="E52" s="3">
-        <v>390300</v>
+        <v>370400</v>
       </c>
       <c r="F52" s="3">
-        <v>415100</v>
+        <v>386700</v>
       </c>
       <c r="G52" s="3">
-        <v>379100</v>
+        <v>411200</v>
       </c>
       <c r="H52" s="3">
-        <v>385300</v>
+        <v>375600</v>
       </c>
       <c r="I52" s="3">
-        <v>392200</v>
+        <v>381800</v>
       </c>
       <c r="J52" s="3">
+        <v>388600</v>
+      </c>
+      <c r="K52" s="3">
         <v>342700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>332600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>324900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>301400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>297700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10959000</v>
+        <v>10859600</v>
       </c>
       <c r="E54" s="3">
-        <v>10934400</v>
+        <v>10858200</v>
       </c>
       <c r="F54" s="3">
-        <v>10832900</v>
+        <v>10833800</v>
       </c>
       <c r="G54" s="3">
-        <v>11163700</v>
+        <v>10733300</v>
       </c>
       <c r="H54" s="3">
-        <v>11087800</v>
+        <v>11061000</v>
       </c>
       <c r="I54" s="3">
-        <v>10986700</v>
+        <v>10985800</v>
       </c>
       <c r="J54" s="3">
+        <v>10885600</v>
+      </c>
+      <c r="K54" s="3">
         <v>9522100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9173700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9250800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9128500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9095600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>323200</v>
+        <v>336400</v>
       </c>
       <c r="E57" s="3">
-        <v>358300</v>
+        <v>320300</v>
       </c>
       <c r="F57" s="3">
-        <v>313100</v>
+        <v>355000</v>
       </c>
       <c r="G57" s="3">
-        <v>287900</v>
+        <v>310200</v>
       </c>
       <c r="H57" s="3">
-        <v>301700</v>
+        <v>285200</v>
       </c>
       <c r="I57" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="J57" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K57" s="3">
         <v>289200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>225400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>256500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>281500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87700</v>
+        <v>116100</v>
       </c>
       <c r="E58" s="3">
-        <v>29500</v>
+        <v>86800</v>
       </c>
       <c r="F58" s="3">
-        <v>95500</v>
+        <v>29200</v>
       </c>
       <c r="G58" s="3">
-        <v>248700</v>
+        <v>94600</v>
       </c>
       <c r="H58" s="3">
-        <v>248700</v>
+        <v>246500</v>
       </c>
       <c r="I58" s="3">
-        <v>16800</v>
+        <v>246500</v>
       </c>
       <c r="J58" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K58" s="3">
         <v>130400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>127400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>254800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>92000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122600</v>
+        <v>119700</v>
       </c>
       <c r="E59" s="3">
-        <v>193700</v>
+        <v>121500</v>
       </c>
       <c r="F59" s="3">
-        <v>127000</v>
+        <v>191900</v>
       </c>
       <c r="G59" s="3">
-        <v>224100</v>
+        <v>125900</v>
       </c>
       <c r="H59" s="3">
-        <v>251500</v>
+        <v>222000</v>
       </c>
       <c r="I59" s="3">
-        <v>245900</v>
+        <v>249200</v>
       </c>
       <c r="J59" s="3">
+        <v>243600</v>
+      </c>
+      <c r="K59" s="3">
         <v>237000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>218800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>533500</v>
+        <v>572100</v>
       </c>
       <c r="E60" s="3">
-        <v>581500</v>
+        <v>528600</v>
       </c>
       <c r="F60" s="3">
-        <v>535600</v>
+        <v>576200</v>
       </c>
       <c r="G60" s="3">
-        <v>760700</v>
+        <v>530700</v>
       </c>
       <c r="H60" s="3">
-        <v>801900</v>
+        <v>753700</v>
       </c>
       <c r="I60" s="3">
-        <v>576300</v>
+        <v>794600</v>
       </c>
       <c r="J60" s="3">
+        <v>571000</v>
+      </c>
+      <c r="K60" s="3">
         <v>656600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>613300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>730100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>523800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1008600</v>
+        <v>999700</v>
       </c>
       <c r="E61" s="3">
-        <v>1008000</v>
+        <v>999300</v>
       </c>
       <c r="F61" s="3">
-        <v>1008000</v>
+        <v>998800</v>
       </c>
       <c r="G61" s="3">
-        <v>1049000</v>
+        <v>998800</v>
       </c>
       <c r="H61" s="3">
-        <v>1048300</v>
+        <v>1039300</v>
       </c>
       <c r="I61" s="3">
-        <v>1325400</v>
+        <v>1038700</v>
       </c>
       <c r="J61" s="3">
+        <v>1313200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1295700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1265100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1264000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1307900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1323300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2563800</v>
+        <v>2528100</v>
       </c>
       <c r="E62" s="3">
-        <v>2557800</v>
+        <v>2540200</v>
       </c>
       <c r="F62" s="3">
-        <v>2601400</v>
+        <v>2534300</v>
       </c>
       <c r="G62" s="3">
-        <v>2619500</v>
+        <v>2577400</v>
       </c>
       <c r="H62" s="3">
-        <v>2381100</v>
+        <v>2595400</v>
       </c>
       <c r="I62" s="3">
-        <v>2338300</v>
+        <v>2359100</v>
       </c>
       <c r="J62" s="3">
+        <v>2316800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1954800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1880700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1884200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1884400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1875400</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5162300</v>
+        <v>5147600</v>
       </c>
       <c r="E66" s="3">
-        <v>5200400</v>
+        <v>5114800</v>
       </c>
       <c r="F66" s="3">
-        <v>5170300</v>
+        <v>5152500</v>
       </c>
       <c r="G66" s="3">
-        <v>5452100</v>
+        <v>5122700</v>
       </c>
       <c r="H66" s="3">
-        <v>5313600</v>
+        <v>5402000</v>
       </c>
       <c r="I66" s="3">
-        <v>5317400</v>
+        <v>5264700</v>
       </c>
       <c r="J66" s="3">
+        <v>5268500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3952300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3803400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3922500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3760600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3740100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4262100</v>
+        <v>-4167100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4300000</v>
+        <v>-4222900</v>
       </c>
       <c r="F72" s="3">
-        <v>-4384000</v>
+        <v>-4260400</v>
       </c>
       <c r="G72" s="3">
-        <v>-4381500</v>
+        <v>-4343600</v>
       </c>
       <c r="H72" s="3">
-        <v>-4291200</v>
+        <v>-4341200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4329000</v>
+        <v>-4251700</v>
       </c>
       <c r="J72" s="3">
+        <v>-4289200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4431000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4378200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4357400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4429800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4436300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5796800</v>
+        <v>5712000</v>
       </c>
       <c r="E76" s="3">
-        <v>5734000</v>
+        <v>5743400</v>
       </c>
       <c r="F76" s="3">
-        <v>5662700</v>
+        <v>5681300</v>
       </c>
       <c r="G76" s="3">
-        <v>5711600</v>
+        <v>5610600</v>
       </c>
       <c r="H76" s="3">
-        <v>5774200</v>
+        <v>5659000</v>
       </c>
       <c r="I76" s="3">
-        <v>5669300</v>
+        <v>5721100</v>
       </c>
       <c r="J76" s="3">
+        <v>5617200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5569800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5370300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5328300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5367900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5355500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75400</v>
+        <v>93200</v>
       </c>
       <c r="E81" s="3">
-        <v>143500</v>
+        <v>74700</v>
       </c>
       <c r="F81" s="3">
-        <v>35200</v>
+        <v>142200</v>
       </c>
       <c r="G81" s="3">
-        <v>-57300</v>
+        <v>34900</v>
       </c>
       <c r="H81" s="3">
-        <v>71400</v>
+        <v>-56700</v>
       </c>
       <c r="I81" s="3">
-        <v>134100</v>
+        <v>70700</v>
       </c>
       <c r="J81" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K81" s="3">
         <v>72500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>57300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>141800</v>
+        <v>143300</v>
       </c>
       <c r="E83" s="3">
-        <v>164000</v>
+        <v>140500</v>
       </c>
       <c r="F83" s="3">
-        <v>147500</v>
+        <v>162500</v>
       </c>
       <c r="G83" s="3">
-        <v>141800</v>
+        <v>146200</v>
       </c>
       <c r="H83" s="3">
-        <v>131000</v>
+        <v>140500</v>
       </c>
       <c r="I83" s="3">
-        <v>146600</v>
+        <v>129800</v>
       </c>
       <c r="J83" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K83" s="3">
         <v>139400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>97200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>126600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>197900</v>
+        <v>242500</v>
       </c>
       <c r="E89" s="3">
-        <v>310700</v>
+        <v>196100</v>
       </c>
       <c r="F89" s="3">
-        <v>248500</v>
+        <v>307800</v>
       </c>
       <c r="G89" s="3">
-        <v>200100</v>
+        <v>246200</v>
       </c>
       <c r="H89" s="3">
-        <v>209000</v>
+        <v>198300</v>
       </c>
       <c r="I89" s="3">
-        <v>236500</v>
+        <v>207000</v>
       </c>
       <c r="J89" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K89" s="3">
         <v>280700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>117100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>164800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>262000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-152200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-122900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-153700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-121800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-121600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-104600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-124000</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-80900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-109800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-106500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-157300</v>
+        <v>-151200</v>
       </c>
       <c r="E94" s="3">
-        <v>-153100</v>
+        <v>-155900</v>
       </c>
       <c r="F94" s="3">
-        <v>-126800</v>
+        <v>-151700</v>
       </c>
       <c r="G94" s="3">
-        <v>-105400</v>
+        <v>-125600</v>
       </c>
       <c r="H94" s="3">
-        <v>-136000</v>
+        <v>-104400</v>
       </c>
       <c r="I94" s="3">
-        <v>177800</v>
+        <v>-134800</v>
       </c>
       <c r="J94" s="3">
+        <v>176200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-62400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>62100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-123500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>938500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-37400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-32900</v>
-      </c>
       <c r="G96" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="H96" s="3">
-        <v>-32300</v>
+        <v>-32600</v>
       </c>
       <c r="I96" s="3">
-        <v>-21800</v>
+        <v>-32100</v>
       </c>
       <c r="J96" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-51700</v>
+        <v>-51800</v>
       </c>
       <c r="E100" s="3">
-        <v>-72500</v>
+        <v>-51200</v>
       </c>
       <c r="F100" s="3">
-        <v>-435900</v>
+        <v>-71900</v>
       </c>
       <c r="G100" s="3">
-        <v>-63900</v>
+        <v>-431900</v>
       </c>
       <c r="H100" s="3">
-        <v>-37400</v>
+        <v>-63300</v>
       </c>
       <c r="I100" s="3">
-        <v>-183800</v>
+        <v>-37100</v>
       </c>
       <c r="J100" s="3">
+        <v>-182100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-178800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>157100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1134500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11200</v>
+        <v>37100</v>
       </c>
       <c r="E102" s="3">
-        <v>84500</v>
+        <v>-11100</v>
       </c>
       <c r="F102" s="3">
-        <v>-315400</v>
+        <v>83700</v>
       </c>
       <c r="G102" s="3">
-        <v>31200</v>
+        <v>-312500</v>
       </c>
       <c r="H102" s="3">
-        <v>35100</v>
+        <v>30900</v>
       </c>
       <c r="I102" s="3">
-        <v>230900</v>
+        <v>34800</v>
       </c>
       <c r="J102" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K102" s="3">
         <v>194900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>209400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>75500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>627600</v>
+        <v>562600</v>
       </c>
       <c r="E8" s="3">
-        <v>571100</v>
+        <v>646700</v>
       </c>
       <c r="F8" s="3">
-        <v>651100</v>
+        <v>588500</v>
       </c>
       <c r="G8" s="3">
-        <v>584400</v>
+        <v>671000</v>
       </c>
       <c r="H8" s="3">
-        <v>565300</v>
+        <v>602200</v>
       </c>
       <c r="I8" s="3">
-        <v>545400</v>
+        <v>582500</v>
       </c>
       <c r="J8" s="3">
+        <v>562000</v>
+      </c>
+      <c r="K8" s="3">
         <v>596700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>573200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>386600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>454100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>492300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>458900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249000</v>
+        <v>261600</v>
       </c>
       <c r="E9" s="3">
-        <v>231600</v>
+        <v>256600</v>
       </c>
       <c r="F9" s="3">
-        <v>232600</v>
+        <v>238700</v>
       </c>
       <c r="G9" s="3">
-        <v>229000</v>
+        <v>239700</v>
       </c>
       <c r="H9" s="3">
-        <v>224600</v>
+        <v>236000</v>
       </c>
       <c r="I9" s="3">
-        <v>211800</v>
+        <v>231500</v>
       </c>
       <c r="J9" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K9" s="3">
         <v>215600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>160900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>196500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>378500</v>
+        <v>301000</v>
       </c>
       <c r="E10" s="3">
-        <v>339500</v>
+        <v>390100</v>
       </c>
       <c r="F10" s="3">
-        <v>418500</v>
+        <v>349900</v>
       </c>
       <c r="G10" s="3">
-        <v>355400</v>
+        <v>431200</v>
       </c>
       <c r="H10" s="3">
-        <v>340700</v>
+        <v>366200</v>
       </c>
       <c r="I10" s="3">
-        <v>333600</v>
+        <v>351100</v>
       </c>
       <c r="J10" s="3">
+        <v>343700</v>
+      </c>
+      <c r="K10" s="3">
         <v>381100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>355800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>257600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>275000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14900</v>
+        <v>17600</v>
       </c>
       <c r="E12" s="3">
-        <v>6500</v>
+        <v>15300</v>
       </c>
       <c r="F12" s="3">
-        <v>8800</v>
+        <v>6700</v>
       </c>
       <c r="G12" s="3">
-        <v>14100</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>10100</v>
+        <v>14500</v>
       </c>
       <c r="I12" s="3">
-        <v>7900</v>
+        <v>10400</v>
       </c>
       <c r="J12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>11100</v>
+        <v>7600</v>
       </c>
       <c r="G14" s="3">
-        <v>79100</v>
+        <v>11500</v>
       </c>
       <c r="H14" s="3">
-        <v>4500</v>
+        <v>81500</v>
       </c>
       <c r="I14" s="3">
-        <v>9200</v>
+        <v>4700</v>
       </c>
       <c r="J14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-235000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-22200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-272200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>143200</v>
+        <v>161000</v>
       </c>
       <c r="E15" s="3">
-        <v>140500</v>
+        <v>147600</v>
       </c>
       <c r="F15" s="3">
-        <v>162500</v>
+        <v>144800</v>
       </c>
       <c r="G15" s="3">
-        <v>146200</v>
+        <v>167400</v>
       </c>
       <c r="H15" s="3">
-        <v>140400</v>
+        <v>150600</v>
       </c>
       <c r="I15" s="3">
-        <v>129800</v>
+        <v>144600</v>
       </c>
       <c r="J15" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K15" s="3">
         <v>145300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>139400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>97200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>126600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>152600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>458800</v>
+        <v>502200</v>
       </c>
       <c r="E17" s="3">
-        <v>436200</v>
+        <v>472800</v>
       </c>
       <c r="F17" s="3">
-        <v>456300</v>
+        <v>449500</v>
       </c>
       <c r="G17" s="3">
-        <v>507300</v>
+        <v>470300</v>
       </c>
       <c r="H17" s="3">
-        <v>416400</v>
+        <v>522700</v>
       </c>
       <c r="I17" s="3">
-        <v>398600</v>
+        <v>429100</v>
       </c>
       <c r="J17" s="3">
+        <v>410700</v>
+      </c>
+      <c r="K17" s="3">
         <v>165800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>405400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>340600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>342400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>406300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>140400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>168800</v>
+        <v>60300</v>
       </c>
       <c r="E18" s="3">
-        <v>134900</v>
+        <v>173900</v>
       </c>
       <c r="F18" s="3">
-        <v>194800</v>
+        <v>139000</v>
       </c>
       <c r="G18" s="3">
-        <v>77200</v>
+        <v>200700</v>
       </c>
       <c r="H18" s="3">
-        <v>148900</v>
+        <v>79500</v>
       </c>
       <c r="I18" s="3">
-        <v>146800</v>
+        <v>153400</v>
       </c>
       <c r="J18" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K18" s="3">
         <v>430900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>167700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>111700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>318500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20700</v>
+        <v>22100</v>
       </c>
       <c r="E20" s="3">
-        <v>-23700</v>
+        <v>21300</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>-24400</v>
       </c>
       <c r="G20" s="3">
-        <v>21200</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>-36100</v>
+        <v>21800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5300</v>
+        <v>-37200</v>
       </c>
       <c r="J20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>332800</v>
+        <v>243500</v>
       </c>
       <c r="E21" s="3">
-        <v>251800</v>
+        <v>342900</v>
       </c>
       <c r="F21" s="3">
-        <v>371200</v>
+        <v>259400</v>
       </c>
       <c r="G21" s="3">
-        <v>244500</v>
+        <v>382500</v>
       </c>
       <c r="H21" s="3">
-        <v>253300</v>
+        <v>252000</v>
       </c>
       <c r="I21" s="3">
-        <v>271300</v>
+        <v>261000</v>
       </c>
       <c r="J21" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K21" s="3">
         <v>545100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>299000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>252700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>231300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="E22" s="3">
         <v>14300</v>
       </c>
       <c r="F22" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="G22" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>16400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3">
-        <v>23500</v>
-      </c>
       <c r="J22" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K22" s="3">
         <v>22000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>175600</v>
+        <v>68200</v>
       </c>
       <c r="E23" s="3">
-        <v>96900</v>
+        <v>181000</v>
       </c>
       <c r="F23" s="3">
-        <v>192800</v>
+        <v>99900</v>
       </c>
       <c r="G23" s="3">
-        <v>73700</v>
+        <v>198700</v>
       </c>
       <c r="H23" s="3">
-        <v>112800</v>
+        <v>75900</v>
       </c>
       <c r="I23" s="3">
-        <v>118000</v>
+        <v>116300</v>
       </c>
       <c r="J23" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K23" s="3">
         <v>377900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>280500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85900</v>
+        <v>41300</v>
       </c>
       <c r="E24" s="3">
-        <v>25500</v>
+        <v>88600</v>
       </c>
       <c r="F24" s="3">
-        <v>57100</v>
+        <v>26200</v>
       </c>
       <c r="G24" s="3">
-        <v>40200</v>
+        <v>58900</v>
       </c>
       <c r="H24" s="3">
-        <v>234400</v>
+        <v>41400</v>
       </c>
       <c r="I24" s="3">
-        <v>50400</v>
+        <v>241600</v>
       </c>
       <c r="J24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K24" s="3">
         <v>245000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>89700</v>
+        <v>26900</v>
       </c>
       <c r="E26" s="3">
-        <v>71500</v>
+        <v>92400</v>
       </c>
       <c r="F26" s="3">
-        <v>135700</v>
+        <v>73600</v>
       </c>
       <c r="G26" s="3">
-        <v>33500</v>
+        <v>139800</v>
       </c>
       <c r="H26" s="3">
-        <v>-121600</v>
+        <v>34500</v>
       </c>
       <c r="I26" s="3">
-        <v>67600</v>
+        <v>-125300</v>
       </c>
       <c r="J26" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K26" s="3">
         <v>132900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>57300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>93200</v>
+        <v>26400</v>
       </c>
       <c r="E27" s="3">
-        <v>74700</v>
+        <v>96000</v>
       </c>
       <c r="F27" s="3">
-        <v>142200</v>
+        <v>77000</v>
       </c>
       <c r="G27" s="3">
-        <v>34900</v>
+        <v>146500</v>
       </c>
       <c r="H27" s="3">
-        <v>-56700</v>
+        <v>36000</v>
       </c>
       <c r="I27" s="3">
-        <v>70700</v>
+        <v>-58500</v>
       </c>
       <c r="J27" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K27" s="3">
         <v>132900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>57300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20700</v>
+        <v>-22100</v>
       </c>
       <c r="E32" s="3">
-        <v>23700</v>
+        <v>-21300</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>24400</v>
       </c>
       <c r="G32" s="3">
-        <v>-21200</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>36100</v>
+        <v>-21800</v>
       </c>
       <c r="I32" s="3">
-        <v>5300</v>
+        <v>37200</v>
       </c>
       <c r="J32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>93200</v>
+        <v>26400</v>
       </c>
       <c r="E33" s="3">
-        <v>74700</v>
+        <v>96000</v>
       </c>
       <c r="F33" s="3">
-        <v>142200</v>
+        <v>77000</v>
       </c>
       <c r="G33" s="3">
-        <v>34900</v>
+        <v>146500</v>
       </c>
       <c r="H33" s="3">
-        <v>-56700</v>
+        <v>36000</v>
       </c>
       <c r="I33" s="3">
-        <v>70700</v>
+        <v>-58500</v>
       </c>
       <c r="J33" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K33" s="3">
         <v>132900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>57300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>93200</v>
+        <v>26400</v>
       </c>
       <c r="E35" s="3">
-        <v>74700</v>
+        <v>96000</v>
       </c>
       <c r="F35" s="3">
-        <v>142200</v>
+        <v>77000</v>
       </c>
       <c r="G35" s="3">
-        <v>34900</v>
+        <v>146500</v>
       </c>
       <c r="H35" s="3">
-        <v>-56700</v>
+        <v>36000</v>
       </c>
       <c r="I35" s="3">
-        <v>70700</v>
+        <v>-58500</v>
       </c>
       <c r="J35" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K35" s="3">
         <v>132900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>57300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>704500</v>
+        <v>718100</v>
       </c>
       <c r="E41" s="3">
-        <v>667400</v>
+        <v>726000</v>
       </c>
       <c r="F41" s="3">
-        <v>678500</v>
+        <v>687700</v>
       </c>
       <c r="G41" s="3">
-        <v>594800</v>
+        <v>699200</v>
       </c>
       <c r="H41" s="3">
-        <v>907300</v>
+        <v>612900</v>
       </c>
       <c r="I41" s="3">
-        <v>876400</v>
+        <v>934900</v>
       </c>
       <c r="J41" s="3">
+        <v>903100</v>
+      </c>
+      <c r="K41" s="3">
         <v>841600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>618500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>413900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>411700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>203700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20500</v>
+        <v>19400</v>
       </c>
       <c r="E42" s="3">
-        <v>44500</v>
+        <v>21200</v>
       </c>
       <c r="F42" s="3">
-        <v>34900</v>
+        <v>45800</v>
       </c>
       <c r="G42" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="H42" s="3">
-        <v>43400</v>
+        <v>36100</v>
       </c>
       <c r="I42" s="3">
-        <v>26200</v>
+        <v>44700</v>
       </c>
       <c r="J42" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K42" s="3">
         <v>18500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="E43" s="3">
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="F43" s="3">
-        <v>3900</v>
+        <v>6400</v>
       </c>
       <c r="G43" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H43" s="3">
-        <v>5900</v>
+        <v>4300</v>
       </c>
       <c r="I43" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>256200</v>
+        <v>269200</v>
       </c>
       <c r="E44" s="3">
-        <v>240100</v>
+        <v>264000</v>
       </c>
       <c r="F44" s="3">
-        <v>216100</v>
+        <v>247400</v>
       </c>
       <c r="G44" s="3">
-        <v>204800</v>
+        <v>222700</v>
       </c>
       <c r="H44" s="3">
-        <v>193600</v>
+        <v>211100</v>
       </c>
       <c r="I44" s="3">
-        <v>186100</v>
+        <v>199500</v>
       </c>
       <c r="J44" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K44" s="3">
         <v>196600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>182000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>187100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>169800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>171100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>181400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153800</v>
+        <v>134100</v>
       </c>
       <c r="E45" s="3">
-        <v>155600</v>
+        <v>158500</v>
       </c>
       <c r="F45" s="3">
-        <v>146400</v>
+        <v>160300</v>
       </c>
       <c r="G45" s="3">
-        <v>134000</v>
+        <v>150900</v>
       </c>
       <c r="H45" s="3">
-        <v>137500</v>
+        <v>138100</v>
       </c>
       <c r="I45" s="3">
-        <v>146800</v>
+        <v>141700</v>
       </c>
       <c r="J45" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K45" s="3">
         <v>124200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>123900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>219000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1141400</v>
+        <v>1147200</v>
       </c>
       <c r="E46" s="3">
-        <v>1113800</v>
+        <v>1176200</v>
       </c>
       <c r="F46" s="3">
-        <v>1079800</v>
+        <v>1147700</v>
       </c>
       <c r="G46" s="3">
-        <v>972800</v>
+        <v>1112700</v>
       </c>
       <c r="H46" s="3">
-        <v>1287700</v>
+        <v>1002400</v>
       </c>
       <c r="I46" s="3">
-        <v>1241500</v>
+        <v>1327000</v>
       </c>
       <c r="J46" s="3">
+        <v>1279300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1186300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>946100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>736200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>809800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>515100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>469000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83500</v>
+        <v>70500</v>
       </c>
       <c r="E47" s="3">
-        <v>117700</v>
+        <v>86000</v>
       </c>
       <c r="F47" s="3">
-        <v>104700</v>
+        <v>121300</v>
       </c>
       <c r="G47" s="3">
-        <v>82600</v>
+        <v>107900</v>
       </c>
       <c r="H47" s="3">
-        <v>101500</v>
+        <v>85100</v>
       </c>
       <c r="I47" s="3">
-        <v>100000</v>
+        <v>104500</v>
       </c>
       <c r="J47" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K47" s="3">
         <v>159000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>196200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>196100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>173100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>173800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>174300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8750300</v>
+        <v>9059700</v>
       </c>
       <c r="E48" s="3">
-        <v>8751500</v>
+        <v>9017100</v>
       </c>
       <c r="F48" s="3">
-        <v>8756300</v>
+        <v>9018300</v>
       </c>
       <c r="G48" s="3">
-        <v>8758700</v>
+        <v>9023200</v>
       </c>
       <c r="H48" s="3">
-        <v>8786900</v>
+        <v>9025700</v>
       </c>
       <c r="I48" s="3">
-        <v>8751600</v>
+        <v>9054800</v>
       </c>
       <c r="J48" s="3">
+        <v>9018400</v>
+      </c>
+      <c r="K48" s="3">
         <v>8639400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7518600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7412600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7445500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7635200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7649200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>503300</v>
+        <v>517000</v>
       </c>
       <c r="E49" s="3">
-        <v>504800</v>
+        <v>518600</v>
       </c>
       <c r="F49" s="3">
-        <v>506400</v>
+        <v>520200</v>
       </c>
       <c r="G49" s="3">
-        <v>507900</v>
+        <v>521800</v>
       </c>
       <c r="H49" s="3">
-        <v>509300</v>
+        <v>523400</v>
       </c>
       <c r="I49" s="3">
-        <v>510900</v>
+        <v>524900</v>
       </c>
       <c r="J49" s="3">
+        <v>526500</v>
+      </c>
+      <c r="K49" s="3">
         <v>512300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>518600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>496200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>497500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>503000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>381100</v>
+        <v>379400</v>
       </c>
       <c r="E52" s="3">
-        <v>370400</v>
+        <v>392700</v>
       </c>
       <c r="F52" s="3">
-        <v>386700</v>
+        <v>381700</v>
       </c>
       <c r="G52" s="3">
-        <v>411200</v>
+        <v>398500</v>
       </c>
       <c r="H52" s="3">
-        <v>375600</v>
+        <v>423800</v>
       </c>
       <c r="I52" s="3">
-        <v>381800</v>
+        <v>387000</v>
       </c>
       <c r="J52" s="3">
+        <v>393400</v>
+      </c>
+      <c r="K52" s="3">
         <v>388600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>342700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>332600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>324900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>301400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>297700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10859600</v>
+        <v>11173800</v>
       </c>
       <c r="E54" s="3">
-        <v>10858200</v>
+        <v>11190700</v>
       </c>
       <c r="F54" s="3">
-        <v>10833800</v>
+        <v>11189300</v>
       </c>
       <c r="G54" s="3">
-        <v>10733300</v>
+        <v>11164100</v>
       </c>
       <c r="H54" s="3">
-        <v>11061000</v>
+        <v>11060500</v>
       </c>
       <c r="I54" s="3">
-        <v>10985800</v>
+        <v>11398200</v>
       </c>
       <c r="J54" s="3">
+        <v>11320700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10885600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9522100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9173700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9250800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9128500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9095600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>336400</v>
+        <v>363700</v>
       </c>
       <c r="E57" s="3">
-        <v>320300</v>
+        <v>346700</v>
       </c>
       <c r="F57" s="3">
-        <v>355000</v>
+        <v>330000</v>
       </c>
       <c r="G57" s="3">
-        <v>310200</v>
+        <v>365800</v>
       </c>
       <c r="H57" s="3">
-        <v>285200</v>
+        <v>319600</v>
       </c>
       <c r="I57" s="3">
-        <v>298900</v>
+        <v>293900</v>
       </c>
       <c r="J57" s="3">
+        <v>308000</v>
+      </c>
+      <c r="K57" s="3">
         <v>310700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>289200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>225400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>256500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>281500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>116100</v>
+        <v>128400</v>
       </c>
       <c r="E58" s="3">
-        <v>86800</v>
+        <v>119600</v>
       </c>
       <c r="F58" s="3">
-        <v>29200</v>
+        <v>89500</v>
       </c>
       <c r="G58" s="3">
-        <v>94600</v>
+        <v>30100</v>
       </c>
       <c r="H58" s="3">
-        <v>246500</v>
+        <v>97500</v>
       </c>
       <c r="I58" s="3">
-        <v>246500</v>
+        <v>254000</v>
       </c>
       <c r="J58" s="3">
+        <v>254000</v>
+      </c>
+      <c r="K58" s="3">
         <v>16700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>130400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>127400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>254800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>92000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119700</v>
+        <v>87400</v>
       </c>
       <c r="E59" s="3">
-        <v>121500</v>
+        <v>123300</v>
       </c>
       <c r="F59" s="3">
-        <v>191900</v>
+        <v>125200</v>
       </c>
       <c r="G59" s="3">
-        <v>125900</v>
+        <v>197800</v>
       </c>
       <c r="H59" s="3">
-        <v>222000</v>
+        <v>129700</v>
       </c>
       <c r="I59" s="3">
-        <v>249200</v>
+        <v>228800</v>
       </c>
       <c r="J59" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K59" s="3">
         <v>243600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>218800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>150300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>572100</v>
+        <v>579500</v>
       </c>
       <c r="E60" s="3">
-        <v>528600</v>
+        <v>589600</v>
       </c>
       <c r="F60" s="3">
-        <v>576200</v>
+        <v>544700</v>
       </c>
       <c r="G60" s="3">
-        <v>530700</v>
+        <v>593700</v>
       </c>
       <c r="H60" s="3">
-        <v>753700</v>
+        <v>546800</v>
       </c>
       <c r="I60" s="3">
-        <v>794600</v>
+        <v>776700</v>
       </c>
       <c r="J60" s="3">
+        <v>818800</v>
+      </c>
+      <c r="K60" s="3">
         <v>571000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>656600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>613300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>730100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>523800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>999700</v>
+        <v>1030700</v>
       </c>
       <c r="E61" s="3">
-        <v>999300</v>
+        <v>1030100</v>
       </c>
       <c r="F61" s="3">
-        <v>998800</v>
+        <v>1029700</v>
       </c>
       <c r="G61" s="3">
-        <v>998800</v>
+        <v>1029200</v>
       </c>
       <c r="H61" s="3">
-        <v>1039300</v>
+        <v>1029200</v>
       </c>
       <c r="I61" s="3">
-        <v>1038700</v>
+        <v>1071000</v>
       </c>
       <c r="J61" s="3">
+        <v>1070400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1313200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1295700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1265100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1264000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1307900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1323300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2528100</v>
+        <v>2621000</v>
       </c>
       <c r="E62" s="3">
-        <v>2540200</v>
+        <v>2605100</v>
       </c>
       <c r="F62" s="3">
-        <v>2534300</v>
+        <v>2617700</v>
       </c>
       <c r="G62" s="3">
-        <v>2577400</v>
+        <v>2611500</v>
       </c>
       <c r="H62" s="3">
-        <v>2595400</v>
+        <v>2656000</v>
       </c>
       <c r="I62" s="3">
-        <v>2359100</v>
+        <v>2674500</v>
       </c>
       <c r="J62" s="3">
+        <v>2431100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2316800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1954800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1880700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1884200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1884400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1875400</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5147600</v>
+        <v>5316800</v>
       </c>
       <c r="E66" s="3">
-        <v>5114800</v>
+        <v>5304600</v>
       </c>
       <c r="F66" s="3">
-        <v>5152500</v>
+        <v>5270700</v>
       </c>
       <c r="G66" s="3">
-        <v>5122700</v>
+        <v>5309600</v>
       </c>
       <c r="H66" s="3">
-        <v>5402000</v>
+        <v>5278900</v>
       </c>
       <c r="I66" s="3">
-        <v>5264700</v>
+        <v>5566700</v>
       </c>
       <c r="J66" s="3">
+        <v>5425200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5268500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3952300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3803400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3922500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3760600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3740100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4167100</v>
+        <v>-4306000</v>
       </c>
       <c r="E72" s="3">
-        <v>-4222900</v>
+        <v>-4294100</v>
       </c>
       <c r="F72" s="3">
-        <v>-4260400</v>
+        <v>-4351700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4343600</v>
+        <v>-4390300</v>
       </c>
       <c r="H72" s="3">
-        <v>-4341200</v>
+        <v>-4476000</v>
       </c>
       <c r="I72" s="3">
-        <v>-4251700</v>
+        <v>-4473500</v>
       </c>
       <c r="J72" s="3">
+        <v>-4381400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4289200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4431000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4378200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4357400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4429800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4436300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5712000</v>
+        <v>5857000</v>
       </c>
       <c r="E76" s="3">
-        <v>5743400</v>
+        <v>5886200</v>
       </c>
       <c r="F76" s="3">
-        <v>5681300</v>
+        <v>5918500</v>
       </c>
       <c r="G76" s="3">
-        <v>5610600</v>
+        <v>5854500</v>
       </c>
       <c r="H76" s="3">
-        <v>5659000</v>
+        <v>5781600</v>
       </c>
       <c r="I76" s="3">
-        <v>5721100</v>
+        <v>5831600</v>
       </c>
       <c r="J76" s="3">
+        <v>5895500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5617200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5569800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5370300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5328300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5367900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5355500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>93200</v>
+        <v>26400</v>
       </c>
       <c r="E81" s="3">
-        <v>74700</v>
+        <v>96000</v>
       </c>
       <c r="F81" s="3">
-        <v>142200</v>
+        <v>77000</v>
       </c>
       <c r="G81" s="3">
-        <v>34900</v>
+        <v>146500</v>
       </c>
       <c r="H81" s="3">
-        <v>-56700</v>
+        <v>36000</v>
       </c>
       <c r="I81" s="3">
-        <v>70700</v>
+        <v>-58500</v>
       </c>
       <c r="J81" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K81" s="3">
         <v>132900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>57300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>258200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143300</v>
+        <v>161000</v>
       </c>
       <c r="E83" s="3">
-        <v>140500</v>
+        <v>147700</v>
       </c>
       <c r="F83" s="3">
-        <v>162500</v>
+        <v>144800</v>
       </c>
       <c r="G83" s="3">
-        <v>146200</v>
+        <v>167400</v>
       </c>
       <c r="H83" s="3">
-        <v>140500</v>
+        <v>150600</v>
       </c>
       <c r="I83" s="3">
-        <v>129800</v>
+        <v>144800</v>
       </c>
       <c r="J83" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K83" s="3">
         <v>145300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>97200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>126600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>144400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242500</v>
+        <v>219500</v>
       </c>
       <c r="E89" s="3">
-        <v>196100</v>
+        <v>249800</v>
       </c>
       <c r="F89" s="3">
-        <v>307800</v>
+        <v>202000</v>
       </c>
       <c r="G89" s="3">
-        <v>246200</v>
+        <v>317200</v>
       </c>
       <c r="H89" s="3">
-        <v>198300</v>
+        <v>253700</v>
       </c>
       <c r="I89" s="3">
+        <v>204300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>234300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>280700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>117100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>164800</v>
+      </c>
+      <c r="O89" s="3">
+        <v>262000</v>
+      </c>
+      <c r="P89" s="3">
         <v>207000</v>
       </c>
-      <c r="J89" s="3">
-        <v>234300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>280700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>117100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>164800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>262000</v>
-      </c>
-      <c r="O89" s="3">
-        <v>207000</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-157500</v>
+        <v>-178100</v>
       </c>
       <c r="E91" s="3">
-        <v>-121700</v>
+        <v>-162300</v>
       </c>
       <c r="F91" s="3">
-        <v>-152200</v>
+        <v>-125500</v>
       </c>
       <c r="G91" s="3">
-        <v>-120700</v>
+        <v>-156900</v>
       </c>
       <c r="H91" s="3">
-        <v>-120500</v>
+        <v>-124400</v>
       </c>
       <c r="I91" s="3">
-        <v>-103700</v>
+        <v>-124100</v>
       </c>
       <c r="J91" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-109800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151200</v>
+        <v>-169800</v>
       </c>
       <c r="E94" s="3">
-        <v>-155900</v>
+        <v>-155800</v>
       </c>
       <c r="F94" s="3">
-        <v>-151700</v>
+        <v>-160600</v>
       </c>
       <c r="G94" s="3">
-        <v>-125600</v>
+        <v>-156400</v>
       </c>
       <c r="H94" s="3">
-        <v>-104400</v>
+        <v>-129500</v>
       </c>
       <c r="I94" s="3">
-        <v>-134800</v>
+        <v>-107600</v>
       </c>
       <c r="J94" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="K94" s="3">
         <v>176200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>62100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-123500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>938500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37100</v>
+        <v>-38100</v>
       </c>
       <c r="E96" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F96" s="3">
-        <v>-37400</v>
+        <v>-38200</v>
       </c>
       <c r="G96" s="3">
-        <v>-32600</v>
+        <v>-38500</v>
       </c>
       <c r="H96" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="I96" s="3">
-        <v>-32100</v>
+        <v>-33600</v>
       </c>
       <c r="J96" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-51800</v>
+        <v>-55000</v>
       </c>
       <c r="E100" s="3">
-        <v>-51200</v>
+        <v>-53400</v>
       </c>
       <c r="F100" s="3">
-        <v>-71900</v>
+        <v>-52700</v>
       </c>
       <c r="G100" s="3">
-        <v>-431900</v>
+        <v>-74000</v>
       </c>
       <c r="H100" s="3">
-        <v>-63300</v>
+        <v>-445100</v>
       </c>
       <c r="I100" s="3">
-        <v>-37100</v>
+        <v>-65300</v>
       </c>
       <c r="J100" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-182100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-178800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>157100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-59900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1134500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="E101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37100</v>
+        <v>-7900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11100</v>
+        <v>38200</v>
       </c>
       <c r="F102" s="3">
-        <v>83700</v>
+        <v>-11500</v>
       </c>
       <c r="G102" s="3">
-        <v>-312500</v>
+        <v>86300</v>
       </c>
       <c r="H102" s="3">
-        <v>30900</v>
+        <v>-322000</v>
       </c>
       <c r="I102" s="3">
-        <v>34800</v>
+        <v>31800</v>
       </c>
       <c r="J102" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K102" s="3">
         <v>228800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>194900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>209400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>75500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRI_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>562600</v>
+        <v>584100</v>
       </c>
       <c r="E8" s="3">
-        <v>646700</v>
+        <v>671400</v>
       </c>
       <c r="F8" s="3">
-        <v>588500</v>
+        <v>611000</v>
       </c>
       <c r="G8" s="3">
-        <v>671000</v>
+        <v>696600</v>
       </c>
       <c r="H8" s="3">
-        <v>602200</v>
+        <v>625300</v>
       </c>
       <c r="I8" s="3">
-        <v>582500</v>
+        <v>604800</v>
       </c>
       <c r="J8" s="3">
-        <v>562000</v>
+        <v>583500</v>
       </c>
       <c r="K8" s="3">
         <v>596700</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>261600</v>
+        <v>271600</v>
       </c>
       <c r="E9" s="3">
-        <v>256600</v>
+        <v>266400</v>
       </c>
       <c r="F9" s="3">
-        <v>238700</v>
+        <v>247800</v>
       </c>
       <c r="G9" s="3">
-        <v>239700</v>
+        <v>248900</v>
       </c>
       <c r="H9" s="3">
-        <v>236000</v>
+        <v>245000</v>
       </c>
       <c r="I9" s="3">
-        <v>231500</v>
+        <v>240300</v>
       </c>
       <c r="J9" s="3">
-        <v>218300</v>
+        <v>226600</v>
       </c>
       <c r="K9" s="3">
         <v>215600</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>301000</v>
+        <v>312500</v>
       </c>
       <c r="E10" s="3">
-        <v>390100</v>
+        <v>405000</v>
       </c>
       <c r="F10" s="3">
-        <v>349900</v>
+        <v>363200</v>
       </c>
       <c r="G10" s="3">
-        <v>431200</v>
+        <v>447700</v>
       </c>
       <c r="H10" s="3">
-        <v>366200</v>
+        <v>380200</v>
       </c>
       <c r="I10" s="3">
-        <v>351100</v>
+        <v>364500</v>
       </c>
       <c r="J10" s="3">
-        <v>343700</v>
+        <v>356900</v>
       </c>
       <c r="K10" s="3">
         <v>381100</v>
@@ -887,25 +887,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="E12" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="F12" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="G12" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H12" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="I12" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="J12" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="K12" s="3">
         <v>7800</v>
@@ -975,25 +975,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="H14" s="3">
-        <v>81500</v>
+        <v>84600</v>
       </c>
       <c r="I14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J14" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="K14" s="3">
         <v>-235000</v>
@@ -1019,25 +1019,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>161000</v>
+        <v>167200</v>
       </c>
       <c r="E15" s="3">
-        <v>147600</v>
+        <v>153200</v>
       </c>
       <c r="F15" s="3">
-        <v>144800</v>
+        <v>150300</v>
       </c>
       <c r="G15" s="3">
-        <v>167400</v>
+        <v>173800</v>
       </c>
       <c r="H15" s="3">
-        <v>150600</v>
+        <v>156400</v>
       </c>
       <c r="I15" s="3">
-        <v>144600</v>
+        <v>150200</v>
       </c>
       <c r="J15" s="3">
-        <v>133700</v>
+        <v>138800</v>
       </c>
       <c r="K15" s="3">
         <v>145300</v>
@@ -1078,25 +1078,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>502200</v>
+        <v>521400</v>
       </c>
       <c r="E17" s="3">
-        <v>472800</v>
+        <v>490900</v>
       </c>
       <c r="F17" s="3">
-        <v>449500</v>
+        <v>466700</v>
       </c>
       <c r="G17" s="3">
-        <v>470300</v>
+        <v>488200</v>
       </c>
       <c r="H17" s="3">
-        <v>522700</v>
+        <v>542700</v>
       </c>
       <c r="I17" s="3">
-        <v>429100</v>
+        <v>445500</v>
       </c>
       <c r="J17" s="3">
-        <v>410700</v>
+        <v>426400</v>
       </c>
       <c r="K17" s="3">
         <v>165800</v>
@@ -1122,25 +1122,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>60300</v>
+        <v>62600</v>
       </c>
       <c r="E18" s="3">
-        <v>173900</v>
+        <v>180600</v>
       </c>
       <c r="F18" s="3">
-        <v>139000</v>
+        <v>144400</v>
       </c>
       <c r="G18" s="3">
-        <v>200700</v>
+        <v>208400</v>
       </c>
       <c r="H18" s="3">
-        <v>79500</v>
+        <v>82500</v>
       </c>
       <c r="I18" s="3">
-        <v>153400</v>
+        <v>159300</v>
       </c>
       <c r="J18" s="3">
-        <v>151300</v>
+        <v>157100</v>
       </c>
       <c r="K18" s="3">
         <v>430900</v>
@@ -1184,25 +1184,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>22100</v>
       </c>
-      <c r="E20" s="3">
-        <v>21300</v>
-      </c>
       <c r="F20" s="3">
-        <v>-24400</v>
+        <v>-25300</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="H20" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="I20" s="3">
-        <v>-37200</v>
+        <v>-38600</v>
       </c>
       <c r="J20" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K20" s="3">
         <v>-31000</v>
@@ -1228,25 +1228,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>243500</v>
+        <v>252800</v>
       </c>
       <c r="E21" s="3">
-        <v>342900</v>
+        <v>356000</v>
       </c>
       <c r="F21" s="3">
-        <v>259400</v>
+        <v>269300</v>
       </c>
       <c r="G21" s="3">
-        <v>382500</v>
+        <v>397100</v>
       </c>
       <c r="H21" s="3">
-        <v>252000</v>
+        <v>261600</v>
       </c>
       <c r="I21" s="3">
-        <v>261000</v>
+        <v>271000</v>
       </c>
       <c r="J21" s="3">
-        <v>279500</v>
+        <v>290200</v>
       </c>
       <c r="K21" s="3">
         <v>545100</v>
@@ -1272,25 +1272,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E22" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="F22" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G22" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="H22" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="3">
-        <v>24200</v>
+        <v>25200</v>
       </c>
       <c r="K22" s="3">
         <v>22000</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68200</v>
+        <v>70800</v>
       </c>
       <c r="E23" s="3">
-        <v>181000</v>
+        <v>187900</v>
       </c>
       <c r="F23" s="3">
-        <v>99900</v>
+        <v>103700</v>
       </c>
       <c r="G23" s="3">
-        <v>198700</v>
+        <v>206300</v>
       </c>
       <c r="H23" s="3">
-        <v>75900</v>
+        <v>78800</v>
       </c>
       <c r="I23" s="3">
-        <v>116300</v>
+        <v>120700</v>
       </c>
       <c r="J23" s="3">
-        <v>121600</v>
+        <v>126200</v>
       </c>
       <c r="K23" s="3">
         <v>377900</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41300</v>
+        <v>42900</v>
       </c>
       <c r="E24" s="3">
-        <v>88600</v>
+        <v>91900</v>
       </c>
       <c r="F24" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="G24" s="3">
-        <v>58900</v>
+        <v>61100</v>
       </c>
       <c r="H24" s="3">
-        <v>41400</v>
+        <v>43000</v>
       </c>
       <c r="I24" s="3">
-        <v>241600</v>
+        <v>250800</v>
       </c>
       <c r="J24" s="3">
-        <v>51900</v>
+        <v>53900</v>
       </c>
       <c r="K24" s="3">
         <v>245000</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="E26" s="3">
-        <v>92400</v>
+        <v>96000</v>
       </c>
       <c r="F26" s="3">
-        <v>73600</v>
+        <v>76500</v>
       </c>
       <c r="G26" s="3">
-        <v>139800</v>
+        <v>145200</v>
       </c>
       <c r="H26" s="3">
-        <v>34500</v>
+        <v>35800</v>
       </c>
       <c r="I26" s="3">
-        <v>-125300</v>
+        <v>-130100</v>
       </c>
       <c r="J26" s="3">
-        <v>69700</v>
+        <v>72300</v>
       </c>
       <c r="K26" s="3">
         <v>132900</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E27" s="3">
-        <v>96000</v>
+        <v>99700</v>
       </c>
       <c r="F27" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="G27" s="3">
-        <v>146500</v>
+        <v>152100</v>
       </c>
       <c r="H27" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I27" s="3">
-        <v>-58500</v>
+        <v>-60700</v>
       </c>
       <c r="J27" s="3">
-        <v>72800</v>
+        <v>75600</v>
       </c>
       <c r="K27" s="3">
         <v>132900</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-21300</v>
-      </c>
       <c r="F32" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="H32" s="3">
-        <v>-21800</v>
+        <v>-22700</v>
       </c>
       <c r="I32" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="J32" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K32" s="3">
         <v>31000</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E33" s="3">
-        <v>96000</v>
+        <v>99700</v>
       </c>
       <c r="F33" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="G33" s="3">
-        <v>146500</v>
+        <v>152100</v>
       </c>
       <c r="H33" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I33" s="3">
-        <v>-58500</v>
+        <v>-60700</v>
       </c>
       <c r="J33" s="3">
-        <v>72800</v>
+        <v>75600</v>
       </c>
       <c r="K33" s="3">
         <v>132900</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E35" s="3">
-        <v>96000</v>
+        <v>99700</v>
       </c>
       <c r="F35" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="G35" s="3">
-        <v>146500</v>
+        <v>152100</v>
       </c>
       <c r="H35" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I35" s="3">
-        <v>-58500</v>
+        <v>-60700</v>
       </c>
       <c r="J35" s="3">
-        <v>72800</v>
+        <v>75600</v>
       </c>
       <c r="K35" s="3">
         <v>132900</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>718100</v>
+        <v>745600</v>
       </c>
       <c r="E41" s="3">
-        <v>726000</v>
+        <v>753700</v>
       </c>
       <c r="F41" s="3">
-        <v>687700</v>
+        <v>714000</v>
       </c>
       <c r="G41" s="3">
-        <v>699200</v>
+        <v>725900</v>
       </c>
       <c r="H41" s="3">
-        <v>612900</v>
+        <v>636300</v>
       </c>
       <c r="I41" s="3">
-        <v>934900</v>
+        <v>970700</v>
       </c>
       <c r="J41" s="3">
-        <v>903100</v>
+        <v>937600</v>
       </c>
       <c r="K41" s="3">
         <v>841600</v>
@@ -2017,25 +2017,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="E42" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="F42" s="3">
-        <v>45800</v>
+        <v>47600</v>
       </c>
       <c r="G42" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="H42" s="3">
-        <v>36100</v>
+        <v>37500</v>
       </c>
       <c r="I42" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="J42" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="K42" s="3">
         <v>18500</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>6400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>6100</v>
       </c>
       <c r="K43" s="3">
         <v>5400</v>
@@ -2105,25 +2105,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>269200</v>
+        <v>279400</v>
       </c>
       <c r="E44" s="3">
-        <v>264000</v>
+        <v>274100</v>
       </c>
       <c r="F44" s="3">
-        <v>247400</v>
+        <v>256900</v>
       </c>
       <c r="G44" s="3">
-        <v>222700</v>
+        <v>231200</v>
       </c>
       <c r="H44" s="3">
-        <v>211100</v>
+        <v>219200</v>
       </c>
       <c r="I44" s="3">
-        <v>199500</v>
+        <v>207100</v>
       </c>
       <c r="J44" s="3">
-        <v>191800</v>
+        <v>199100</v>
       </c>
       <c r="K44" s="3">
         <v>196600</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134100</v>
+        <v>139200</v>
       </c>
       <c r="E45" s="3">
-        <v>158500</v>
+        <v>164500</v>
       </c>
       <c r="F45" s="3">
-        <v>160300</v>
+        <v>166500</v>
       </c>
       <c r="G45" s="3">
-        <v>150900</v>
+        <v>156700</v>
       </c>
       <c r="H45" s="3">
-        <v>138100</v>
+        <v>143400</v>
       </c>
       <c r="I45" s="3">
-        <v>141700</v>
+        <v>147100</v>
       </c>
       <c r="J45" s="3">
-        <v>151300</v>
+        <v>157100</v>
       </c>
       <c r="K45" s="3">
         <v>124200</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1147200</v>
+        <v>1191100</v>
       </c>
       <c r="E46" s="3">
-        <v>1176200</v>
+        <v>1221200</v>
       </c>
       <c r="F46" s="3">
-        <v>1147700</v>
+        <v>1191600</v>
       </c>
       <c r="G46" s="3">
-        <v>1112700</v>
+        <v>1155200</v>
       </c>
       <c r="H46" s="3">
-        <v>1002400</v>
+        <v>1040800</v>
       </c>
       <c r="I46" s="3">
-        <v>1327000</v>
+        <v>1377700</v>
       </c>
       <c r="J46" s="3">
-        <v>1279300</v>
+        <v>1328200</v>
       </c>
       <c r="K46" s="3">
         <v>1186300</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70500</v>
+        <v>73100</v>
       </c>
       <c r="E47" s="3">
-        <v>86000</v>
+        <v>89300</v>
       </c>
       <c r="F47" s="3">
-        <v>121300</v>
+        <v>126000</v>
       </c>
       <c r="G47" s="3">
-        <v>107900</v>
+        <v>112000</v>
       </c>
       <c r="H47" s="3">
-        <v>85100</v>
+        <v>88400</v>
       </c>
       <c r="I47" s="3">
-        <v>104500</v>
+        <v>108500</v>
       </c>
       <c r="J47" s="3">
-        <v>103100</v>
+        <v>107000</v>
       </c>
       <c r="K47" s="3">
         <v>159000</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9059700</v>
+        <v>9406000</v>
       </c>
       <c r="E48" s="3">
-        <v>9017100</v>
+        <v>9361700</v>
       </c>
       <c r="F48" s="3">
-        <v>9018300</v>
+        <v>9363000</v>
       </c>
       <c r="G48" s="3">
-        <v>9023200</v>
+        <v>9368100</v>
       </c>
       <c r="H48" s="3">
-        <v>9025700</v>
+        <v>9370700</v>
       </c>
       <c r="I48" s="3">
-        <v>9054800</v>
+        <v>9400800</v>
       </c>
       <c r="J48" s="3">
-        <v>9018400</v>
+        <v>9363100</v>
       </c>
       <c r="K48" s="3">
         <v>8639400</v>
@@ -2325,25 +2325,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>517000</v>
+        <v>536800</v>
       </c>
       <c r="E49" s="3">
-        <v>518600</v>
+        <v>538400</v>
       </c>
       <c r="F49" s="3">
-        <v>520200</v>
+        <v>540100</v>
       </c>
       <c r="G49" s="3">
-        <v>521800</v>
+        <v>541700</v>
       </c>
       <c r="H49" s="3">
-        <v>523400</v>
+        <v>543400</v>
       </c>
       <c r="I49" s="3">
-        <v>524900</v>
+        <v>544900</v>
       </c>
       <c r="J49" s="3">
-        <v>526500</v>
+        <v>546600</v>
       </c>
       <c r="K49" s="3">
         <v>512300</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>379400</v>
+        <v>393900</v>
       </c>
       <c r="E52" s="3">
-        <v>392700</v>
+        <v>407800</v>
       </c>
       <c r="F52" s="3">
-        <v>381700</v>
+        <v>396300</v>
       </c>
       <c r="G52" s="3">
-        <v>398500</v>
+        <v>413700</v>
       </c>
       <c r="H52" s="3">
-        <v>423800</v>
+        <v>440000</v>
       </c>
       <c r="I52" s="3">
-        <v>387000</v>
+        <v>401800</v>
       </c>
       <c r="J52" s="3">
-        <v>393400</v>
+        <v>408400</v>
       </c>
       <c r="K52" s="3">
         <v>388600</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11173800</v>
+        <v>11600900</v>
       </c>
       <c r="E54" s="3">
-        <v>11190700</v>
+        <v>11618400</v>
       </c>
       <c r="F54" s="3">
-        <v>11189300</v>
+        <v>11616900</v>
       </c>
       <c r="G54" s="3">
-        <v>11164100</v>
+        <v>11590800</v>
       </c>
       <c r="H54" s="3">
-        <v>11060500</v>
+        <v>11483200</v>
       </c>
       <c r="I54" s="3">
-        <v>11398200</v>
+        <v>11833800</v>
       </c>
       <c r="J54" s="3">
-        <v>11320700</v>
+        <v>11753400</v>
       </c>
       <c r="K54" s="3">
         <v>10885600</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>363700</v>
+        <v>377600</v>
       </c>
       <c r="E57" s="3">
-        <v>346700</v>
+        <v>359900</v>
       </c>
       <c r="F57" s="3">
-        <v>330000</v>
+        <v>342600</v>
       </c>
       <c r="G57" s="3">
-        <v>365800</v>
+        <v>379800</v>
       </c>
       <c r="H57" s="3">
-        <v>319600</v>
+        <v>331800</v>
       </c>
       <c r="I57" s="3">
-        <v>293900</v>
+        <v>305200</v>
       </c>
       <c r="J57" s="3">
-        <v>308000</v>
+        <v>319800</v>
       </c>
       <c r="K57" s="3">
         <v>310700</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128400</v>
+        <v>133300</v>
       </c>
       <c r="E58" s="3">
-        <v>119600</v>
+        <v>124200</v>
       </c>
       <c r="F58" s="3">
-        <v>89500</v>
+        <v>92900</v>
       </c>
       <c r="G58" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="H58" s="3">
-        <v>97500</v>
+        <v>101200</v>
       </c>
       <c r="I58" s="3">
-        <v>254000</v>
+        <v>263700</v>
       </c>
       <c r="J58" s="3">
-        <v>254000</v>
+        <v>263700</v>
       </c>
       <c r="K58" s="3">
         <v>16700</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87400</v>
+        <v>90700</v>
       </c>
       <c r="E59" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="F59" s="3">
-        <v>125200</v>
+        <v>130000</v>
       </c>
       <c r="G59" s="3">
-        <v>197800</v>
+        <v>205300</v>
       </c>
       <c r="H59" s="3">
-        <v>129700</v>
+        <v>134700</v>
       </c>
       <c r="I59" s="3">
-        <v>228800</v>
+        <v>237500</v>
       </c>
       <c r="J59" s="3">
-        <v>256800</v>
+        <v>266600</v>
       </c>
       <c r="K59" s="3">
         <v>243600</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>579500</v>
+        <v>601600</v>
       </c>
       <c r="E60" s="3">
-        <v>589600</v>
+        <v>612100</v>
       </c>
       <c r="F60" s="3">
-        <v>544700</v>
+        <v>565500</v>
       </c>
       <c r="G60" s="3">
-        <v>593700</v>
+        <v>616400</v>
       </c>
       <c r="H60" s="3">
-        <v>546800</v>
+        <v>567700</v>
       </c>
       <c r="I60" s="3">
-        <v>776700</v>
+        <v>806400</v>
       </c>
       <c r="J60" s="3">
-        <v>818800</v>
+        <v>850100</v>
       </c>
       <c r="K60" s="3">
         <v>571000</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1030700</v>
+        <v>1070100</v>
       </c>
       <c r="E61" s="3">
-        <v>1030100</v>
+        <v>1069500</v>
       </c>
       <c r="F61" s="3">
-        <v>1029700</v>
+        <v>1069100</v>
       </c>
       <c r="G61" s="3">
-        <v>1029200</v>
+        <v>1068600</v>
       </c>
       <c r="H61" s="3">
-        <v>1029200</v>
+        <v>1068600</v>
       </c>
       <c r="I61" s="3">
-        <v>1071000</v>
+        <v>1112000</v>
       </c>
       <c r="J61" s="3">
-        <v>1070400</v>
+        <v>1111300</v>
       </c>
       <c r="K61" s="3">
         <v>1313200</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2621000</v>
+        <v>2721200</v>
       </c>
       <c r="E62" s="3">
-        <v>2605100</v>
+        <v>2704700</v>
       </c>
       <c r="F62" s="3">
-        <v>2617700</v>
+        <v>2717700</v>
       </c>
       <c r="G62" s="3">
-        <v>2611500</v>
+        <v>2711300</v>
       </c>
       <c r="H62" s="3">
-        <v>2656000</v>
+        <v>2757500</v>
       </c>
       <c r="I62" s="3">
-        <v>2674500</v>
+        <v>2776700</v>
       </c>
       <c r="J62" s="3">
-        <v>2431100</v>
+        <v>2524000</v>
       </c>
       <c r="K62" s="3">
         <v>2316800</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5316800</v>
+        <v>5520000</v>
       </c>
       <c r="E66" s="3">
-        <v>5304600</v>
+        <v>5507300</v>
       </c>
       <c r="F66" s="3">
-        <v>5270700</v>
+        <v>5472200</v>
       </c>
       <c r="G66" s="3">
-        <v>5309600</v>
+        <v>5512500</v>
       </c>
       <c r="H66" s="3">
-        <v>5278900</v>
+        <v>5480600</v>
       </c>
       <c r="I66" s="3">
-        <v>5566700</v>
+        <v>5779400</v>
       </c>
       <c r="J66" s="3">
-        <v>5425200</v>
+        <v>5632600</v>
       </c>
       <c r="K66" s="3">
         <v>5268500</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4306000</v>
+        <v>-4470500</v>
       </c>
       <c r="E72" s="3">
-        <v>-4294100</v>
+        <v>-4458200</v>
       </c>
       <c r="F72" s="3">
-        <v>-4351700</v>
+        <v>-4518000</v>
       </c>
       <c r="G72" s="3">
-        <v>-4390300</v>
+        <v>-4558100</v>
       </c>
       <c r="H72" s="3">
-        <v>-4476000</v>
+        <v>-4647100</v>
       </c>
       <c r="I72" s="3">
-        <v>-4473500</v>
+        <v>-4644500</v>
       </c>
       <c r="J72" s="3">
-        <v>-4381400</v>
+        <v>-4548800</v>
       </c>
       <c r="K72" s="3">
         <v>-4289200</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5857000</v>
+        <v>6080800</v>
       </c>
       <c r="E76" s="3">
-        <v>5886200</v>
+        <v>6111100</v>
       </c>
       <c r="F76" s="3">
-        <v>5918500</v>
+        <v>6144700</v>
       </c>
       <c r="G76" s="3">
-        <v>5854500</v>
+        <v>6078200</v>
       </c>
       <c r="H76" s="3">
-        <v>5781600</v>
+        <v>6002600</v>
       </c>
       <c r="I76" s="3">
-        <v>5831600</v>
+        <v>6054400</v>
       </c>
       <c r="J76" s="3">
-        <v>5895500</v>
+        <v>6120800</v>
       </c>
       <c r="K76" s="3">
         <v>5617200</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E81" s="3">
-        <v>96000</v>
+        <v>99700</v>
       </c>
       <c r="F81" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="G81" s="3">
-        <v>146500</v>
+        <v>152100</v>
       </c>
       <c r="H81" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I81" s="3">
-        <v>-58500</v>
+        <v>-60700</v>
       </c>
       <c r="J81" s="3">
-        <v>72800</v>
+        <v>75600</v>
       </c>
       <c r="K81" s="3">
         <v>132900</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161000</v>
+        <v>167200</v>
       </c>
       <c r="E83" s="3">
-        <v>147700</v>
+        <v>153300</v>
       </c>
       <c r="F83" s="3">
-        <v>144800</v>
+        <v>150300</v>
       </c>
       <c r="G83" s="3">
-        <v>167400</v>
+        <v>173800</v>
       </c>
       <c r="H83" s="3">
-        <v>150600</v>
+        <v>156400</v>
       </c>
       <c r="I83" s="3">
-        <v>144800</v>
+        <v>150300</v>
       </c>
       <c r="J83" s="3">
-        <v>133700</v>
+        <v>138800</v>
       </c>
       <c r="K83" s="3">
         <v>145300</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>219500</v>
+        <v>227900</v>
       </c>
       <c r="E89" s="3">
-        <v>249800</v>
+        <v>259400</v>
       </c>
       <c r="F89" s="3">
-        <v>202000</v>
+        <v>209800</v>
       </c>
       <c r="G89" s="3">
-        <v>317200</v>
+        <v>329400</v>
       </c>
       <c r="H89" s="3">
-        <v>253700</v>
+        <v>263400</v>
       </c>
       <c r="I89" s="3">
-        <v>204300</v>
+        <v>212100</v>
       </c>
       <c r="J89" s="3">
-        <v>213400</v>
+        <v>221500</v>
       </c>
       <c r="K89" s="3">
         <v>234300</v>
@@ -3960,25 +3960,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-178100</v>
+        <v>-184900</v>
       </c>
       <c r="E91" s="3">
-        <v>-162300</v>
+        <v>-168600</v>
       </c>
       <c r="F91" s="3">
-        <v>-125500</v>
+        <v>-130300</v>
       </c>
       <c r="G91" s="3">
-        <v>-156900</v>
+        <v>-162900</v>
       </c>
       <c r="H91" s="3">
-        <v>-124400</v>
+        <v>-129100</v>
       </c>
       <c r="I91" s="3">
-        <v>-124100</v>
+        <v>-128900</v>
       </c>
       <c r="J91" s="3">
-        <v>-106800</v>
+        <v>-110900</v>
       </c>
       <c r="K91" s="3">
         <v>-122900</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169800</v>
+        <v>-176300</v>
       </c>
       <c r="E94" s="3">
-        <v>-155800</v>
+        <v>-161800</v>
       </c>
       <c r="F94" s="3">
-        <v>-160600</v>
+        <v>-166800</v>
       </c>
       <c r="G94" s="3">
-        <v>-156400</v>
+        <v>-162300</v>
       </c>
       <c r="H94" s="3">
-        <v>-129500</v>
+        <v>-134400</v>
       </c>
       <c r="I94" s="3">
-        <v>-107600</v>
+        <v>-111700</v>
       </c>
       <c r="J94" s="3">
-        <v>-138900</v>
+        <v>-144200</v>
       </c>
       <c r="K94" s="3">
         <v>176200</v>
@@ -4154,25 +4154,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38100</v>
+        <v>-39500</v>
       </c>
       <c r="E96" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F96" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="G96" s="3">
-        <v>-38500</v>
+        <v>-40000</v>
       </c>
       <c r="H96" s="3">
-        <v>-33600</v>
+        <v>-34800</v>
       </c>
       <c r="I96" s="3">
-        <v>-33600</v>
+        <v>-34800</v>
       </c>
       <c r="J96" s="3">
-        <v>-33000</v>
+        <v>-34300</v>
       </c>
       <c r="K96" s="3">
         <v>-21600</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-55000</v>
+        <v>-57100</v>
       </c>
       <c r="E100" s="3">
-        <v>-53400</v>
+        <v>-55400</v>
       </c>
       <c r="F100" s="3">
-        <v>-52700</v>
+        <v>-54800</v>
       </c>
       <c r="G100" s="3">
-        <v>-74000</v>
+        <v>-76900</v>
       </c>
       <c r="H100" s="3">
-        <v>-445100</v>
+        <v>-462100</v>
       </c>
       <c r="I100" s="3">
-        <v>-65300</v>
+        <v>-67800</v>
       </c>
       <c r="J100" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="K100" s="3">
         <v>-182100</v>
@@ -4374,16 +4374,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-2400</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>-1200</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="E102" s="3">
-        <v>38200</v>
+        <v>39700</v>
       </c>
       <c r="F102" s="3">
-        <v>-11500</v>
+        <v>-11900</v>
       </c>
       <c r="G102" s="3">
-        <v>86300</v>
+        <v>89600</v>
       </c>
       <c r="H102" s="3">
-        <v>-322000</v>
+        <v>-334300</v>
       </c>
       <c r="I102" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="J102" s="3">
-        <v>35800</v>
+        <v>37200</v>
       </c>
       <c r="K102" s="3">
         <v>228800</v>
